--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_7_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_7_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>185690.3441845174</v>
+        <v>217019.0649619285</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1538061.186335761</v>
+        <v>1771316.831510079</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24192048.89158796</v>
+        <v>24021786.69306278</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5158588.835696365</v>
+        <v>5212971.031132191</v>
       </c>
     </row>
     <row r="11">
@@ -3980,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>6.02702395096845</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4019,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>6.842670244060457</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>6.842670244060457</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>6.842670244060457</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4098,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.027023950968451</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4107,13 +4109,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>6.842670244060457</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>6.842670244060457</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>6.842670244060457</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>6.635316600301049</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>6.635316600301049</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>7.321657161144689</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>7.347783202065457</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>14.12202674368531</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>20.89627028530516</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>27.37068097624183</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>20.45889285092824</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>13.54710472561464</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.54710472561464</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>13.54710472561464</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>13.54710472561464</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>6.635316600301049</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>6.635316600301049</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>6.635316600301049</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>6.635316600301049</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>7.04795035138227</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>13.82219389300212</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>20.59643743462198</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>27.37068097624183</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>27.37068097624183</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>21.28277799546562</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>21.28277799546562</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>21.28277799546562</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>14.37098987015202</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>7.45920174483843</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>0.5474136195248366</v>
       </c>
     </row>
   </sheetData>
@@ -7985,10 +7987,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M2" t="n">
-        <v>89.35872216232903</v>
+        <v>94.50134181136147</v>
       </c>
       <c r="N2" t="n">
-        <v>83.98878642167108</v>
+        <v>89.21461903306817</v>
       </c>
       <c r="O2" t="n">
         <v>99.00804712831379</v>
@@ -8061,19 +8063,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L3" t="n">
-        <v>38.8718120156598</v>
+        <v>42.27423123832551</v>
       </c>
       <c r="M3" t="n">
-        <v>16.76619772104769</v>
+        <v>20.73666047215158</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>29.09636626239171</v>
+        <v>32.82469745261383</v>
       </c>
       <c r="P3" t="n">
-        <v>51.91261060228356</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q3" t="n">
         <v>54.62009481132077</v>
@@ -8222,13 +8224,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>89.358722162329</v>
+        <v>89.35872216232906</v>
       </c>
       <c r="N5" t="n">
-        <v>83.98878642167105</v>
+        <v>83.98878642167111</v>
       </c>
       <c r="O5" t="n">
-        <v>99.00804712831376</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P5" t="n">
         <v>83.66766412458549</v>
@@ -8298,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>38.8718120156598</v>
+        <v>38.87181201565983</v>
       </c>
       <c r="M6" t="n">
-        <v>16.76619772104769</v>
+        <v>16.76619772104772</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>29.09636626239168</v>
+        <v>29.09636626239171</v>
       </c>
       <c r="P6" t="n">
-        <v>51.91261060228354</v>
+        <v>51.91261060228356</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8459,13 +8461,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>74.04503350661622</v>
+        <v>89.35872216232906</v>
       </c>
       <c r="N8" t="n">
-        <v>68.42730627354024</v>
+        <v>83.98878642167111</v>
       </c>
       <c r="O8" t="n">
-        <v>84.31378269605858</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P8" t="n">
         <v>83.66766412458549</v>
@@ -8535,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>28.74009079028824</v>
+        <v>38.87181201565983</v>
       </c>
       <c r="M9" t="n">
-        <v>4.94295693345623</v>
+        <v>16.76619772104772</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>17.99414464209616</v>
+        <v>29.09636626239171</v>
       </c>
       <c r="P9" t="n">
-        <v>43.00209896284861</v>
+        <v>51.91261060228356</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8690,22 +8692,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L11" t="n">
-        <v>65.50844344750686</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M11" t="n">
-        <v>26.10636923685576</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N11" t="n">
-        <v>19.7129442975646</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>38.31419205881667</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P11" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8769,7 +8771,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>48.6785506654351</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>15.10822991808962</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8927,22 +8929,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L14" t="n">
-        <v>65.50844344750686</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M14" t="n">
-        <v>26.10636923685576</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N14" t="n">
-        <v>19.7129442975646</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>38.31419205881667</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P14" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q14" t="n">
         <v>55.20189757157522</v>
@@ -9006,7 +9008,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>48.6785506654351</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>15.10822991808962</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9164,22 +9166,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L17" t="n">
-        <v>65.50844344750686</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M17" t="n">
-        <v>26.10636923685576</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N17" t="n">
-        <v>19.7129442975646</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>38.31419205881667</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P17" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q17" t="n">
         <v>55.20189757157522</v>
@@ -9243,7 +9245,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>48.6785506654351</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>15.10822991808962</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9401,22 +9403,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L20" t="n">
-        <v>65.50844344750686</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M20" t="n">
-        <v>26.10636923685576</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N20" t="n">
-        <v>19.7129442975646</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>38.31419205881667</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P20" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q20" t="n">
         <v>55.20189757157522</v>
@@ -9480,7 +9482,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>48.6785506654351</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>15.10822991808962</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9638,22 +9640,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L23" t="n">
-        <v>65.50844344750686</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M23" t="n">
-        <v>26.10636923685576</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N23" t="n">
-        <v>19.7129442975646</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>38.31419205881667</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P23" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q23" t="n">
         <v>55.20189757157522</v>
@@ -9717,7 +9719,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>48.6785506654351</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>15.10822991808962</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9875,22 +9877,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L26" t="n">
-        <v>65.50844344750686</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M26" t="n">
-        <v>26.10636923685576</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N26" t="n">
-        <v>19.7129442975646</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>38.31419205881667</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P26" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q26" t="n">
         <v>55.20189757157522</v>
@@ -9954,7 +9956,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>48.6785506654351</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>15.10822991808962</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10112,22 +10114,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L29" t="n">
-        <v>65.50844344750686</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M29" t="n">
-        <v>26.10636923685576</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N29" t="n">
-        <v>19.7129442975646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>38.31419205881667</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P29" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q29" t="n">
         <v>55.20189757157522</v>
@@ -10191,7 +10193,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>48.6785506654351</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>15.10822991808962</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10349,22 +10351,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L32" t="n">
-        <v>65.50844344750686</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M32" t="n">
-        <v>26.10636923685576</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N32" t="n">
-        <v>19.7129442975646</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>38.31419205881667</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P32" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q32" t="n">
         <v>55.20189757157522</v>
@@ -10428,7 +10430,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>48.6785506654351</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>15.10822991808962</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10586,22 +10588,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L35" t="n">
-        <v>65.50844344750686</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M35" t="n">
-        <v>26.10636923685576</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N35" t="n">
-        <v>19.7129442975646</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>38.31419205881667</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P35" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10665,7 +10667,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>48.6785506654351</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>15.10822991808962</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10823,22 +10825,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L38" t="n">
-        <v>65.50844344750686</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M38" t="n">
-        <v>26.10636923685576</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N38" t="n">
-        <v>19.7129442975646</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>38.31419205881667</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P38" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -10902,7 +10904,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>48.6785506654351</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>15.10822991808962</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11060,22 +11062,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L41" t="n">
-        <v>65.50844344750686</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M41" t="n">
-        <v>26.10636923685576</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N41" t="n">
-        <v>19.7129442975646</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>38.31419205881667</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P41" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q41" t="n">
         <v>55.20189757157522</v>
@@ -11139,7 +11141,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>48.6785506654351</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>15.10822991808962</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11297,22 +11299,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>84.27780726850284</v>
+        <v>77.8149746188389</v>
       </c>
       <c r="L44" t="n">
-        <v>65.50844344750686</v>
+        <v>48.8650607484235</v>
       </c>
       <c r="M44" t="n">
-        <v>26.10636923685576</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>19.7129442975646</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>38.31419205881667</v>
+        <v>20.08114851979258</v>
       </c>
       <c r="P44" t="n">
-        <v>83.66766412458549</v>
+        <v>68.8059313365888</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>48.6785506654351</v>
+        <v>35.82011851855916</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>15.10822991808962</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -22559,22 +22561,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G2" t="n">
-        <v>422.180569077725</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H2" t="n">
-        <v>349.6598249464623</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I2" t="n">
-        <v>253.2845231898766</v>
+        <v>254.413627538865</v>
       </c>
       <c r="J2" t="n">
-        <v>101.17202184758</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K2" t="n">
-        <v>58.29051612840928</v>
+        <v>62.01598937483024</v>
       </c>
       <c r="L2" t="n">
-        <v>13.76272976322227</v>
+        <v>18.3845087542864</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22583,25 +22585,25 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.934605547775959</v>
       </c>
       <c r="P2" t="n">
-        <v>51.80080109985099</v>
+        <v>56.01237276874355</v>
       </c>
       <c r="Q2" t="n">
-        <v>117.6935628343943</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R2" t="n">
-        <v>209.6584962505987</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S2" t="n">
-        <v>235.2672937814706</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T2" t="n">
-        <v>219.3436445631938</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U2" t="n">
-        <v>248.788833337017</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -22638,19 +22640,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.0149653106349</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H3" t="n">
-        <v>137.7503459159327</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I3" t="n">
-        <v>116.9507599882392</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J3" t="n">
-        <v>81.45811026959613</v>
+        <v>82.93859734111298</v>
       </c>
       <c r="K3" t="n">
-        <v>11.04044456262879</v>
+        <v>13.57083277636242</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22668,19 +22670,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.82637802552915</v>
+        <v>55.8266610081867</v>
       </c>
       <c r="R3" t="n">
-        <v>154.3921839405207</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S3" t="n">
-        <v>208.0224770741423</v>
+        <v>208.3135435403172</v>
       </c>
       <c r="T3" t="n">
-        <v>230.0952907293151</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6495544029776</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -22717,49 +22719,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.2343807020206</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H4" t="n">
-        <v>167.5776180378764</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I4" t="n">
-        <v>167.7355108777182</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J4" t="n">
-        <v>132.2802453397308</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K4" t="n">
-        <v>87.46423987719797</v>
+        <v>88.99056004441432</v>
       </c>
       <c r="L4" t="n">
-        <v>61.01644271081538</v>
+        <v>62.96960703121101</v>
       </c>
       <c r="M4" t="n">
-        <v>57.6471651877402</v>
+        <v>59.70650310975205</v>
       </c>
       <c r="N4" t="n">
-        <v>45.30505538511905</v>
+        <v>47.31542685419204</v>
       </c>
       <c r="O4" t="n">
-        <v>70.7260729557852</v>
+        <v>72.58297639552539</v>
       </c>
       <c r="P4" t="n">
-        <v>89.84907843621555</v>
+        <v>91.43798011889523</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.6385858692978</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R4" t="n">
-        <v>221.05342233419</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S4" t="n">
-        <v>243.6919922925021</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T4" t="n">
-        <v>218.0866353446397</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U4" t="n">
-        <v>291.219579948833</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -22808,10 +22810,10 @@
         <v>101.17202184758</v>
       </c>
       <c r="K5" t="n">
-        <v>58.29051612840928</v>
+        <v>58.29051612840931</v>
       </c>
       <c r="L5" t="n">
-        <v>13.76272976322224</v>
+        <v>13.7627297632223</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22823,10 +22825,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>51.80080109985099</v>
+        <v>51.80080109985101</v>
       </c>
       <c r="Q5" t="n">
-        <v>117.6935628343942</v>
+        <v>117.6935628343943</v>
       </c>
       <c r="R5" t="n">
         <v>209.6584962505987</v>
@@ -22887,7 +22889,7 @@
         <v>81.45811026959613</v>
       </c>
       <c r="K6" t="n">
-        <v>11.04044456262878</v>
+        <v>11.04044456262881</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22905,7 +22907,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>53.82637802552914</v>
+        <v>53.82637802552915</v>
       </c>
       <c r="R6" t="n">
         <v>154.3921839405207</v>
@@ -22966,25 +22968,25 @@
         <v>132.2802453397308</v>
       </c>
       <c r="K7" t="n">
-        <v>87.46423987719797</v>
+        <v>87.46423987719798</v>
       </c>
       <c r="L7" t="n">
-        <v>61.01644271081537</v>
+        <v>61.01644271081538</v>
       </c>
       <c r="M7" t="n">
-        <v>57.6471651877402</v>
+        <v>57.64716518774021</v>
       </c>
       <c r="N7" t="n">
-        <v>45.30505538511903</v>
+        <v>45.30505538511906</v>
       </c>
       <c r="O7" t="n">
-        <v>70.72607295578518</v>
+        <v>70.7260729557852</v>
       </c>
       <c r="P7" t="n">
-        <v>89.84907843621555</v>
+        <v>89.84907843621556</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.6385858692977</v>
+        <v>151.6385858692978</v>
       </c>
       <c r="R7" t="n">
         <v>221.05342233419</v>
@@ -23033,22 +23035,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>422.0933569378507</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H8" t="n">
-        <v>348.766663618974</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I8" t="n">
-        <v>249.9222771673705</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J8" t="n">
-        <v>93.77000049091893</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K8" t="n">
-        <v>47.19680489086682</v>
+        <v>58.29051612840931</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>13.7627297632223</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23060,22 +23062,22 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39.2595863707439</v>
+        <v>51.80080109985101</v>
       </c>
       <c r="Q8" t="n">
-        <v>108.2756328645375</v>
+        <v>117.6935628343943</v>
       </c>
       <c r="R8" t="n">
-        <v>204.1801566692163</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S8" t="n">
-        <v>233.2799471440838</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T8" t="n">
-        <v>218.9618734208938</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U8" t="n">
-        <v>248.7818563658271</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23112,19 +23114,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>160.968302702022</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H9" t="n">
-        <v>137.2996833538022</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I9" t="n">
-        <v>115.3441745601174</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J9" t="n">
-        <v>77.04951705849162</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K9" t="n">
-        <v>3.505456574455792</v>
+        <v>11.04044456262881</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23142,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>47.86993696819729</v>
+        <v>53.82637802552915</v>
       </c>
       <c r="R9" t="n">
-        <v>151.4950089952352</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S9" t="n">
-        <v>207.155739585213</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T9" t="n">
-        <v>229.9072076709146</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U9" t="n">
-        <v>249.6464844945162</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23191,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.1952603384582</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H10" t="n">
-        <v>167.229802441839</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I10" t="n">
-        <v>166.5590548534935</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J10" t="n">
-        <v>129.5144356358626</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K10" t="n">
-        <v>82.91916491057385</v>
+        <v>87.46423987719798</v>
       </c>
       <c r="L10" t="n">
-        <v>55.200311568079</v>
+        <v>61.01644271081538</v>
       </c>
       <c r="M10" t="n">
-        <v>51.51487037948515</v>
+        <v>57.64716518774021</v>
       </c>
       <c r="N10" t="n">
-        <v>39.31857284105146</v>
+        <v>45.30505538511906</v>
       </c>
       <c r="O10" t="n">
-        <v>65.19658738606127</v>
+        <v>70.7260729557852</v>
       </c>
       <c r="P10" t="n">
-        <v>85.11764828316647</v>
+        <v>89.84907843621556</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.3627888804421</v>
+        <v>151.6385858692978</v>
       </c>
       <c r="R10" t="n">
-        <v>219.2944285325528</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S10" t="n">
-        <v>243.0102310475085</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T10" t="n">
-        <v>217.9194847003273</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2174461108205</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -23270,19 +23272,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>421.8203441068026</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H11" t="n">
-        <v>345.9706709630035</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I11" t="n">
-        <v>239.3969499983917</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J11" t="n">
-        <v>70.59837772175715</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K11" t="n">
-        <v>12.46854898344239</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -23300,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.79331850570077</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R11" t="n">
-        <v>187.0305144208961</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S11" t="n">
-        <v>227.0586672565771</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7667597529811</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7600153393432</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23349,16 +23351,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.8222279594475</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H12" t="n">
-        <v>135.8889088663072</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I12" t="n">
-        <v>110.314846800428</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J12" t="n">
-        <v>63.24865727868655</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.22362421431183</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R12" t="n">
-        <v>142.4255613817112</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S12" t="n">
-        <v>204.4424653097627</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T12" t="n">
-        <v>229.3184239497484</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6368743140837</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23428,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.0727961812524</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H13" t="n">
-        <v>166.1409847532278</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I13" t="n">
-        <v>162.8762236531602</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J13" t="n">
-        <v>120.8562197214153</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K13" t="n">
-        <v>68.69105646430455</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L13" t="n">
-        <v>36.99323132314251</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M13" t="n">
-        <v>32.3180570822221</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N13" t="n">
-        <v>20.57821685700986</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O13" t="n">
-        <v>47.88683542028699</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P13" t="n">
-        <v>70.30616512438972</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.1080856802398</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R13" t="n">
-        <v>213.7879947003738</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S13" t="n">
-        <v>240.8760147805681</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T13" t="n">
-        <v>217.3962287559027</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2107662477002</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23507,19 +23509,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>421.8203441068026</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H14" t="n">
-        <v>345.9706709630035</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I14" t="n">
-        <v>239.3969499983917</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J14" t="n">
-        <v>70.59837772175715</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K14" t="n">
-        <v>12.46854898344239</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -23537,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.79331850570077</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R14" t="n">
-        <v>187.0305144208961</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S14" t="n">
-        <v>227.0586672565771</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7667597529811</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7600153393432</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23586,16 +23588,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.8222279594475</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H15" t="n">
-        <v>135.8889088663072</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I15" t="n">
-        <v>110.314846800428</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J15" t="n">
-        <v>63.24865727868655</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>29.22362421431183</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R15" t="n">
-        <v>142.4255613817112</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S15" t="n">
-        <v>204.4424653097627</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T15" t="n">
-        <v>229.3184239497484</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6368743140837</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23665,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.0727961812524</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H16" t="n">
-        <v>166.1409847532278</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I16" t="n">
-        <v>162.8762236531602</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J16" t="n">
-        <v>120.8562197214153</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K16" t="n">
-        <v>68.69105646430455</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L16" t="n">
-        <v>36.99323132314251</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M16" t="n">
-        <v>32.3180570822221</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N16" t="n">
-        <v>20.57821685700986</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O16" t="n">
-        <v>47.88683542028699</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P16" t="n">
-        <v>70.30616512438972</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.1080856802398</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R16" t="n">
-        <v>213.7879947003738</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S16" t="n">
-        <v>240.8760147805681</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T16" t="n">
-        <v>217.3962287559027</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2107662477002</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23744,19 +23746,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>421.8203441068026</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H17" t="n">
-        <v>345.9706709630035</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I17" t="n">
-        <v>239.3969499983917</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J17" t="n">
-        <v>70.59837772175715</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K17" t="n">
-        <v>12.46854898344239</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -23774,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>78.79331850570077</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R17" t="n">
-        <v>187.0305144208961</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S17" t="n">
-        <v>227.0586672565771</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7667597529811</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7600153393432</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23823,16 +23825,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>160.8222279594475</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H18" t="n">
-        <v>135.8889088663072</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I18" t="n">
-        <v>110.314846800428</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J18" t="n">
-        <v>63.24865727868655</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>29.22362421431183</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R18" t="n">
-        <v>142.4255613817112</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S18" t="n">
-        <v>204.4424653097627</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T18" t="n">
-        <v>229.3184239497484</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6368743140837</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23902,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.0727961812524</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H19" t="n">
-        <v>166.1409847532278</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I19" t="n">
-        <v>162.8762236531602</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J19" t="n">
-        <v>120.8562197214153</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K19" t="n">
-        <v>68.69105646430455</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L19" t="n">
-        <v>36.99323132314251</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M19" t="n">
-        <v>32.3180570822221</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N19" t="n">
-        <v>20.57821685700986</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O19" t="n">
-        <v>47.88683542028699</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P19" t="n">
-        <v>70.30616512438972</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.1080856802398</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R19" t="n">
-        <v>213.7879947003738</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S19" t="n">
-        <v>240.8760147805681</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T19" t="n">
-        <v>217.3962287559027</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2107662477002</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23981,19 +23983,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.8203441068026</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H20" t="n">
-        <v>345.9706709630035</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I20" t="n">
-        <v>239.3969499983917</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J20" t="n">
-        <v>70.59837772175715</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K20" t="n">
-        <v>12.46854898344239</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -24011,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.79331850570077</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R20" t="n">
-        <v>187.0305144208961</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S20" t="n">
-        <v>227.0586672565771</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7667597529811</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7600153393432</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24060,16 +24062,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.8222279594475</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H21" t="n">
-        <v>135.8889088663072</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I21" t="n">
-        <v>110.314846800428</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J21" t="n">
-        <v>63.24865727868655</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24090,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>29.22362421431183</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R21" t="n">
-        <v>142.4255613817112</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S21" t="n">
-        <v>204.4424653097627</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T21" t="n">
-        <v>229.3184239497484</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6368743140837</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24139,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.0727961812524</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H22" t="n">
-        <v>166.1409847532278</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I22" t="n">
-        <v>162.8762236531602</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J22" t="n">
-        <v>120.8562197214153</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K22" t="n">
-        <v>68.69105646430455</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L22" t="n">
-        <v>36.99323132314251</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M22" t="n">
-        <v>32.3180570822221</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N22" t="n">
-        <v>20.57821685700986</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O22" t="n">
-        <v>47.88683542028699</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P22" t="n">
-        <v>70.30616512438972</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.1080856802398</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R22" t="n">
-        <v>213.7879947003738</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S22" t="n">
-        <v>240.8760147805681</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T22" t="n">
-        <v>217.3962287559027</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2107662477002</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24218,19 +24220,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>421.8203441068026</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H23" t="n">
-        <v>345.9706709630035</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I23" t="n">
-        <v>239.3969499983917</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J23" t="n">
-        <v>70.59837772175715</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K23" t="n">
-        <v>12.46854898344239</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -24248,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>78.79331850570077</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R23" t="n">
-        <v>187.0305144208961</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S23" t="n">
-        <v>227.0586672565771</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7667597529811</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7600153393432</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24297,16 +24299,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.8222279594475</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H24" t="n">
-        <v>135.8889088663072</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I24" t="n">
-        <v>110.314846800428</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J24" t="n">
-        <v>63.24865727868655</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>29.22362421431183</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R24" t="n">
-        <v>142.4255613817112</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S24" t="n">
-        <v>204.4424653097627</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T24" t="n">
-        <v>229.3184239497484</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6368743140837</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24376,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.0727961812524</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H25" t="n">
-        <v>166.1409847532278</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I25" t="n">
-        <v>162.8762236531602</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J25" t="n">
-        <v>120.8562197214153</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K25" t="n">
-        <v>68.69105646430455</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L25" t="n">
-        <v>36.99323132314251</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M25" t="n">
-        <v>32.3180570822221</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N25" t="n">
-        <v>20.57821685700986</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O25" t="n">
-        <v>47.88683542028699</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P25" t="n">
-        <v>70.30616512438972</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.1080856802398</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R25" t="n">
-        <v>213.7879947003738</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S25" t="n">
-        <v>240.8760147805681</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T25" t="n">
-        <v>217.3962287559027</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U25" t="n">
-        <v>291.2107662477002</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24455,19 +24457,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.8203441068026</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H26" t="n">
-        <v>345.9706709630035</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I26" t="n">
-        <v>239.3969499983917</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J26" t="n">
-        <v>70.59837772175715</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K26" t="n">
-        <v>12.46854898344239</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -24485,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>78.79331850570077</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R26" t="n">
-        <v>187.0305144208961</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S26" t="n">
-        <v>227.0586672565771</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7667597529811</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7600153393432</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24534,16 +24536,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>160.8222279594475</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H27" t="n">
-        <v>135.8889088663072</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I27" t="n">
-        <v>110.314846800428</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J27" t="n">
-        <v>63.24865727868655</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>29.22362421431183</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R27" t="n">
-        <v>142.4255613817112</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S27" t="n">
-        <v>204.4424653097627</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T27" t="n">
-        <v>229.3184239497484</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6368743140837</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24613,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.0727961812524</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H28" t="n">
-        <v>166.1409847532278</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I28" t="n">
-        <v>162.8762236531602</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J28" t="n">
-        <v>120.8562197214153</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K28" t="n">
-        <v>68.69105646430455</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L28" t="n">
-        <v>36.99323132314251</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M28" t="n">
-        <v>32.3180570822221</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N28" t="n">
-        <v>20.57821685700986</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O28" t="n">
-        <v>47.88683542028699</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P28" t="n">
-        <v>70.30616512438972</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.1080856802398</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R28" t="n">
-        <v>213.7879947003738</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S28" t="n">
-        <v>240.8760147805681</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T28" t="n">
-        <v>217.3962287559027</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U28" t="n">
-        <v>291.2107662477002</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24692,19 +24694,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>421.8203441068026</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H29" t="n">
-        <v>345.9706709630035</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I29" t="n">
-        <v>239.3969499983917</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J29" t="n">
-        <v>70.59837772175715</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K29" t="n">
-        <v>12.46854898344239</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -24722,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>78.79331850570077</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R29" t="n">
-        <v>187.0305144208961</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S29" t="n">
-        <v>227.0586672565771</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7667597529811</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7600153393432</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24771,16 +24773,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.8222279594475</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H30" t="n">
-        <v>135.8889088663072</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I30" t="n">
-        <v>110.314846800428</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J30" t="n">
-        <v>63.24865727868655</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24801,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>29.22362421431183</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R30" t="n">
-        <v>142.4255613817112</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S30" t="n">
-        <v>204.4424653097627</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T30" t="n">
-        <v>229.3184239497484</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6368743140837</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24850,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.0727961812524</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H31" t="n">
-        <v>166.1409847532278</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I31" t="n">
-        <v>162.8762236531602</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J31" t="n">
-        <v>120.8562197214153</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K31" t="n">
-        <v>68.69105646430455</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L31" t="n">
-        <v>36.99323132314251</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M31" t="n">
-        <v>32.3180570822221</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N31" t="n">
-        <v>20.57821685700986</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O31" t="n">
-        <v>47.88683542028699</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P31" t="n">
-        <v>70.30616512438972</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.1080856802398</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R31" t="n">
-        <v>213.7879947003738</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S31" t="n">
-        <v>240.8760147805681</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T31" t="n">
-        <v>217.3962287559027</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U31" t="n">
-        <v>291.2107662477002</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24929,19 +24931,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>421.8203441068026</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H32" t="n">
-        <v>345.9706709630035</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I32" t="n">
-        <v>239.3969499983917</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J32" t="n">
-        <v>70.59837772175715</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K32" t="n">
-        <v>12.46854898344239</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -24959,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>78.79331850570077</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R32" t="n">
-        <v>187.0305144208961</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S32" t="n">
-        <v>227.0586672565771</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7667597529811</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7600153393432</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25008,16 +25010,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.8222279594475</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H33" t="n">
-        <v>135.8889088663072</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I33" t="n">
-        <v>110.314846800428</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J33" t="n">
-        <v>63.24865727868655</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>29.22362421431183</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R33" t="n">
-        <v>142.4255613817112</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S33" t="n">
-        <v>204.4424653097627</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T33" t="n">
-        <v>229.3184239497484</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6368743140837</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25087,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.0727961812524</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H34" t="n">
-        <v>166.1409847532278</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I34" t="n">
-        <v>162.8762236531602</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J34" t="n">
-        <v>120.8562197214153</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K34" t="n">
-        <v>68.69105646430455</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L34" t="n">
-        <v>36.99323132314251</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M34" t="n">
-        <v>32.3180570822221</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N34" t="n">
-        <v>20.57821685700986</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O34" t="n">
-        <v>47.88683542028699</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P34" t="n">
-        <v>70.30616512438972</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.1080856802398</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R34" t="n">
-        <v>213.7879947003738</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S34" t="n">
-        <v>240.8760147805681</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T34" t="n">
-        <v>217.3962287559027</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U34" t="n">
-        <v>291.2107662477002</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25166,19 +25168,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>421.8203441068026</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H35" t="n">
-        <v>345.9706709630035</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I35" t="n">
-        <v>239.3969499983917</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J35" t="n">
-        <v>70.59837772175715</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K35" t="n">
-        <v>12.46854898344239</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>78.79331850570077</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R35" t="n">
-        <v>187.0305144208961</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S35" t="n">
-        <v>227.0586672565771</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7667597529811</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7600153393432</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25245,16 +25247,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.8222279594475</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H36" t="n">
-        <v>135.8889088663072</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I36" t="n">
-        <v>110.314846800428</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J36" t="n">
-        <v>63.24865727868655</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>29.22362421431183</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R36" t="n">
-        <v>142.4255613817112</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S36" t="n">
-        <v>204.4424653097627</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T36" t="n">
-        <v>229.3184239497484</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6368743140837</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25324,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.0727961812524</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H37" t="n">
-        <v>166.1409847532278</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I37" t="n">
-        <v>162.8762236531602</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J37" t="n">
-        <v>120.8562197214153</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K37" t="n">
-        <v>68.69105646430455</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L37" t="n">
-        <v>36.99323132314251</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M37" t="n">
-        <v>32.3180570822221</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N37" t="n">
-        <v>20.57821685700986</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O37" t="n">
-        <v>47.88683542028699</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P37" t="n">
-        <v>70.30616512438972</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.1080856802398</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R37" t="n">
-        <v>213.7879947003738</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S37" t="n">
-        <v>240.8760147805681</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T37" t="n">
-        <v>217.3962287559027</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U37" t="n">
-        <v>291.2107662477002</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25403,19 +25405,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>421.8203441068026</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H38" t="n">
-        <v>345.9706709630035</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I38" t="n">
-        <v>239.3969499983917</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J38" t="n">
-        <v>70.59837772175715</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K38" t="n">
-        <v>12.46854898344239</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -25433,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>78.79331850570077</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R38" t="n">
-        <v>187.0305144208961</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S38" t="n">
-        <v>227.0586672565771</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7667597529811</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7600153393432</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25482,16 +25484,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.8222279594475</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H39" t="n">
-        <v>135.8889088663072</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I39" t="n">
-        <v>110.314846800428</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J39" t="n">
-        <v>63.24865727868655</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25512,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>29.22362421431183</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R39" t="n">
-        <v>142.4255613817112</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S39" t="n">
-        <v>204.4424653097627</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T39" t="n">
-        <v>229.3184239497484</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6368743140837</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25561,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.0727961812524</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H40" t="n">
-        <v>166.1409847532278</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I40" t="n">
-        <v>162.8762236531602</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J40" t="n">
-        <v>120.8562197214153</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K40" t="n">
-        <v>68.69105646430455</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L40" t="n">
-        <v>36.99323132314251</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M40" t="n">
-        <v>32.3180570822221</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N40" t="n">
-        <v>20.57821685700986</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O40" t="n">
-        <v>47.88683542028699</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P40" t="n">
-        <v>70.30616512438972</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.1080856802398</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R40" t="n">
-        <v>213.7879947003738</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S40" t="n">
-        <v>240.8760147805681</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T40" t="n">
-        <v>217.3962287559027</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U40" t="n">
-        <v>291.2107662477002</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25640,19 +25642,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.8203441068026</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H41" t="n">
-        <v>345.9706709630035</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I41" t="n">
-        <v>239.3969499983917</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J41" t="n">
-        <v>70.59837772175715</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K41" t="n">
-        <v>12.46854898344239</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -25670,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>78.79331850570077</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R41" t="n">
-        <v>187.0305144208961</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S41" t="n">
-        <v>227.0586672565771</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7667597529811</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7600153393432</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25719,16 +25721,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.8222279594475</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H42" t="n">
-        <v>135.8889088663072</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I42" t="n">
-        <v>110.314846800428</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J42" t="n">
-        <v>63.24865727868655</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25749,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>29.22362421431183</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R42" t="n">
-        <v>142.4255613817112</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S42" t="n">
-        <v>204.4424653097627</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T42" t="n">
-        <v>229.3184239497484</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6368743140837</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25798,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.0727961812524</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H43" t="n">
-        <v>166.1409847532278</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I43" t="n">
-        <v>162.8762236531602</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J43" t="n">
-        <v>120.8562197214153</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K43" t="n">
-        <v>68.69105646430455</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L43" t="n">
-        <v>36.99323132314251</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M43" t="n">
-        <v>32.3180570822221</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N43" t="n">
-        <v>20.57821685700986</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O43" t="n">
-        <v>47.88683542028699</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P43" t="n">
-        <v>70.30616512438972</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.1080856802398</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R43" t="n">
-        <v>213.7879947003738</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S43" t="n">
-        <v>240.8760147805681</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T43" t="n">
-        <v>217.3962287559027</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U43" t="n">
-        <v>291.2107662477002</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25868,7 +25870,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D44" t="n">
-        <v>319.1317556432476</v>
+        <v>313.1047316922792</v>
       </c>
       <c r="E44" t="n">
         <v>359.9585549362873</v>
@@ -25877,19 +25879,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>421.8203441068026</v>
+        <v>421.6715168777854</v>
       </c>
       <c r="H44" t="n">
-        <v>345.9706709630035</v>
+        <v>344.4464941038303</v>
       </c>
       <c r="I44" t="n">
-        <v>239.3969499983917</v>
+        <v>233.6592882517032</v>
       </c>
       <c r="J44" t="n">
-        <v>70.59837772175715</v>
+        <v>57.96685269295213</v>
       </c>
       <c r="K44" t="n">
-        <v>12.46854898344239</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -25907,22 +25909,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>78.79331850570077</v>
+        <v>55.87898183410095</v>
       </c>
       <c r="R44" t="n">
-        <v>187.0305144208961</v>
+        <v>170.8390757520792</v>
       </c>
       <c r="S44" t="n">
-        <v>227.0586672565771</v>
+        <v>223.6672667753459</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7667597529811</v>
+        <v>217.115268557958</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7600153393432</v>
+        <v>248.7481091610218</v>
       </c>
       <c r="V44" t="n">
-        <v>313.3044420010231</v>
+        <v>306.4617717569627</v>
       </c>
       <c r="W44" t="n">
         <v>325.3917254792934</v>
@@ -25956,16 +25958,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.8222279594475</v>
+        <v>160.742598371771</v>
       </c>
       <c r="H45" t="n">
-        <v>135.8889088663072</v>
+        <v>135.1198546905889</v>
       </c>
       <c r="I45" t="n">
-        <v>110.314846800428</v>
+        <v>107.5732140668273</v>
       </c>
       <c r="J45" t="n">
-        <v>63.24865727868655</v>
+        <v>55.72540750613977</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25986,22 +25988,22 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>29.22362421431183</v>
+        <v>13.03195324694666</v>
       </c>
       <c r="R45" t="n">
-        <v>142.4255613817112</v>
+        <v>137.4815418942142</v>
       </c>
       <c r="S45" t="n">
-        <v>204.4424653097627</v>
+        <v>202.9633806439284</v>
       </c>
       <c r="T45" t="n">
-        <v>229.3184239497484</v>
+        <v>222.1547905869391</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6368743140837</v>
+        <v>242.7889652813603</v>
       </c>
       <c r="V45" t="n">
-        <v>249.2999251801724</v>
+        <v>242.4572549361119</v>
       </c>
       <c r="W45" t="n">
         <v>283.2492567629311</v>
@@ -26035,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.0727961812524</v>
+        <v>169.0060374098756</v>
       </c>
       <c r="H46" t="n">
-        <v>166.1409847532278</v>
+        <v>165.5474385858958</v>
       </c>
       <c r="I46" t="n">
-        <v>162.8762236531602</v>
+        <v>160.8686053284832</v>
       </c>
       <c r="J46" t="n">
-        <v>120.8562197214153</v>
+        <v>116.1363745850751</v>
       </c>
       <c r="K46" t="n">
-        <v>68.69105646430455</v>
+        <v>60.93490102616282</v>
       </c>
       <c r="L46" t="n">
-        <v>36.99323132314251</v>
+        <v>27.06802271317616</v>
       </c>
       <c r="M46" t="n">
-        <v>32.3180570822221</v>
+        <v>21.85331621994683</v>
       </c>
       <c r="N46" t="n">
-        <v>20.57821685700986</v>
+        <v>10.36230414259362</v>
       </c>
       <c r="O46" t="n">
-        <v>47.88683542028699</v>
+        <v>38.45078653513615</v>
       </c>
       <c r="P46" t="n">
-        <v>70.30616512438972</v>
+        <v>62.23199517532575</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.1080856802398</v>
+        <v>132.5179489243146</v>
       </c>
       <c r="R46" t="n">
-        <v>213.7879947003738</v>
+        <v>210.786277580104</v>
       </c>
       <c r="S46" t="n">
-        <v>240.8760147805681</v>
+        <v>239.7125914648468</v>
       </c>
       <c r="T46" t="n">
-        <v>217.3962287559027</v>
+        <v>217.1109867327472</v>
       </c>
       <c r="U46" t="n">
-        <v>291.2107662477002</v>
+        <v>291.2071248601706</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>420758.2231567516</v>
+        <v>416938.1570667692</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>430262.1513696971</v>
+        <v>420758.2231567516</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>453548.5810443003</v>
+        <v>460805.5011315729</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>453548.5810443003</v>
+        <v>460805.5011315729</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>453548.5810443003</v>
+        <v>460805.5011315729</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>453548.5810443003</v>
+        <v>460805.5011315729</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>453548.5810443003</v>
+        <v>460805.5011315729</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>453548.5810443003</v>
+        <v>460805.5011315729</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>453548.5810443003</v>
+        <v>460805.5011315729</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>453548.5810443003</v>
+        <v>460805.5011315729</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>453548.5810443003</v>
+        <v>460805.5011315729</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>453548.5810443003</v>
+        <v>460805.5011315729</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>453548.5810443003</v>
+        <v>460805.5011315729</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>453548.5810443003</v>
+        <v>467768.0123843704</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93076.03619987472</v>
+        <v>92148.00209696719</v>
       </c>
       <c r="C2" t="n">
-        <v>93076.03619987472</v>
+        <v>93076.03619987474</v>
       </c>
       <c r="D2" t="n">
-        <v>95459.39478441894</v>
+        <v>93076.03619987474</v>
       </c>
       <c r="E2" t="n">
-        <v>101529.0633477715</v>
+        <v>103513.6999435323</v>
       </c>
       <c r="F2" t="n">
-        <v>101529.0633477715</v>
+        <v>103513.6999435323</v>
       </c>
       <c r="G2" t="n">
-        <v>101529.0633477715</v>
+        <v>103513.6999435323</v>
       </c>
       <c r="H2" t="n">
-        <v>101529.0633477715</v>
+        <v>103513.6999435323</v>
       </c>
       <c r="I2" t="n">
-        <v>101529.0633477715</v>
+        <v>103513.6999435323</v>
       </c>
       <c r="J2" t="n">
-        <v>101529.0633477715</v>
+        <v>103513.6999435323</v>
       </c>
       <c r="K2" t="n">
-        <v>101529.0633477715</v>
+        <v>103513.6999435323</v>
       </c>
       <c r="L2" t="n">
-        <v>101529.0633477715</v>
+        <v>103513.6999435323</v>
       </c>
       <c r="M2" t="n">
-        <v>101529.0633477715</v>
+        <v>103513.6999435323</v>
       </c>
       <c r="N2" t="n">
-        <v>101529.0633477715</v>
+        <v>103513.6999435323</v>
       </c>
       <c r="O2" t="n">
-        <v>101529.0633477715</v>
+        <v>103513.6999435323</v>
       </c>
       <c r="P2" t="n">
-        <v>101529.0633477715</v>
+        <v>105143.5392901261</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>337891.9184474517</v>
+        <v>330871.7541851042</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6633.965728588497</v>
       </c>
       <c r="D3" t="n">
-        <v>18579.062267641</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>54560.65771623977</v>
+        <v>94068.42750429735</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>7966.532645516751</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>12904.60941083623</v>
+      </c>
+      <c r="C4" t="n">
         <v>12655.6028957624</v>
       </c>
-      <c r="C4" t="n">
-        <v>12655.60289576239</v>
-      </c>
       <c r="D4" t="n">
-        <v>11709.42039186015</v>
+        <v>12655.6028957624</v>
       </c>
       <c r="E4" t="n">
-        <v>8382.68790407143</v>
+        <v>6937.739840700675</v>
       </c>
       <c r="F4" t="n">
-        <v>8382.68790407143</v>
+        <v>6937.739840700675</v>
       </c>
       <c r="G4" t="n">
-        <v>8382.68790407143</v>
+        <v>6937.739840700675</v>
       </c>
       <c r="H4" t="n">
-        <v>8382.68790407143</v>
+        <v>6937.739840700675</v>
       </c>
       <c r="I4" t="n">
-        <v>8382.68790407143</v>
+        <v>6937.739840700675</v>
       </c>
       <c r="J4" t="n">
-        <v>8382.68790407143</v>
+        <v>6937.739840700675</v>
       </c>
       <c r="K4" t="n">
-        <v>8382.68790407143</v>
+        <v>6937.739840700675</v>
       </c>
       <c r="L4" t="n">
-        <v>8382.68790407143</v>
+        <v>6937.739840700675</v>
       </c>
       <c r="M4" t="n">
-        <v>8382.68790407143</v>
+        <v>6937.739840700675</v>
       </c>
       <c r="N4" t="n">
-        <v>8382.68790407143</v>
+        <v>6937.739840700675</v>
       </c>
       <c r="O4" t="n">
-        <v>8382.68790407143</v>
+        <v>6937.739840700675</v>
       </c>
       <c r="P4" t="n">
-        <v>8382.68790407143</v>
+        <v>6758.990660301038</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41271.79307559616</v>
+        <v>41112.97456555201</v>
       </c>
       <c r="C5" t="n">
         <v>41271.79307559616</v>
       </c>
       <c r="D5" t="n">
-        <v>41744.72270709982</v>
+        <v>41271.79307559616</v>
       </c>
       <c r="E5" t="n">
-        <v>9597.603036665469</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="F5" t="n">
-        <v>9597.603036665469</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="G5" t="n">
-        <v>9597.603036665469</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="H5" t="n">
-        <v>9597.603036665469</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="I5" t="n">
-        <v>9597.603036665469</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="J5" t="n">
-        <v>9597.603036665469</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="K5" t="n">
-        <v>9597.603036665469</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="L5" t="n">
-        <v>9597.603036665469</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="M5" t="n">
-        <v>9597.603036665469</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="N5" t="n">
-        <v>9597.603036665469</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="O5" t="n">
-        <v>9597.603036665469</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="P5" t="n">
-        <v>9597.603036665469</v>
+        <v>10820.69024365778</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-298743.2782189356</v>
+        <v>-292741.3360645252</v>
       </c>
       <c r="C6" t="n">
-        <v>39148.64022851617</v>
+        <v>32514.67449992769</v>
       </c>
       <c r="D6" t="n">
-        <v>23426.18941781796</v>
+        <v>39148.64022851618</v>
       </c>
       <c r="E6" t="n">
-        <v>28988.11469079486</v>
+        <v>-7689.167400229571</v>
       </c>
       <c r="F6" t="n">
-        <v>83548.77240703463</v>
+        <v>86379.26010406778</v>
       </c>
       <c r="G6" t="n">
-        <v>83548.77240703463</v>
+        <v>86379.26010406778</v>
       </c>
       <c r="H6" t="n">
-        <v>83548.77240703464</v>
+        <v>86379.26010406778</v>
       </c>
       <c r="I6" t="n">
-        <v>83548.77240703464</v>
+        <v>86379.26010406778</v>
       </c>
       <c r="J6" t="n">
-        <v>83548.77240703464</v>
+        <v>86379.26010406778</v>
       </c>
       <c r="K6" t="n">
-        <v>83548.77240703464</v>
+        <v>86379.26010406781</v>
       </c>
       <c r="L6" t="n">
-        <v>83548.77240703464</v>
+        <v>86379.26010406778</v>
       </c>
       <c r="M6" t="n">
-        <v>83548.77240703464</v>
+        <v>86379.26010406778</v>
       </c>
       <c r="N6" t="n">
-        <v>83548.77240703464</v>
+        <v>86379.26010406781</v>
       </c>
       <c r="O6" t="n">
-        <v>83548.77240703464</v>
+        <v>86379.26010406778</v>
       </c>
       <c r="P6" t="n">
-        <v>83548.77240703463</v>
+        <v>79597.32574065054</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>350.6510585135856</v>
+        <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
         <v>350.6510585135856</v>
       </c>
       <c r="D3" t="n">
-        <v>372.3450783073314</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="E3" t="n">
-        <v>440.2570200305261</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="F3" t="n">
-        <v>440.2570200305261</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="G3" t="n">
-        <v>440.2570200305261</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="H3" t="n">
-        <v>440.2570200305261</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="I3" t="n">
-        <v>440.2570200305261</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="J3" t="n">
-        <v>440.2570200305261</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="K3" t="n">
-        <v>440.2570200305261</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="L3" t="n">
-        <v>440.2570200305261</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="M3" t="n">
-        <v>440.2570200305261</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="N3" t="n">
-        <v>440.2570200305261</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="O3" t="n">
-        <v>440.2570200305261</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="P3" t="n">
-        <v>440.2570200305261</v>
+        <v>477.2777932485735</v>
       </c>
     </row>
     <row r="4">
@@ -26829,7 +26831,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.842670244060457</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>350.6510585135856</v>
+        <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>7.285252754319117</v>
       </c>
       <c r="D3" t="n">
-        <v>21.69401979374578</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>67.91194172319467</v>
+        <v>117.0874735398017</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.539261195186119</v>
       </c>
     </row>
     <row r="4">
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.842670244060491</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.409652496537027</v>
+        <v>1.380365048278458</v>
       </c>
       <c r="H2" t="n">
-        <v>14.43660363015983</v>
+        <v>14.13666355068176</v>
       </c>
       <c r="I2" t="n">
-        <v>54.34562787274376</v>
+        <v>53.21652352375528</v>
       </c>
       <c r="J2" t="n">
-        <v>119.6424935779595</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K2" t="n">
-        <v>179.3130837563719</v>
+        <v>175.587610509951</v>
       </c>
       <c r="L2" t="n">
-        <v>222.453736347267</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M2" t="n">
-        <v>247.5226439325573</v>
+        <v>242.3800242835249</v>
       </c>
       <c r="N2" t="n">
-        <v>251.5278190883432</v>
+        <v>246.3019864769461</v>
       </c>
       <c r="O2" t="n">
-        <v>237.5105870759031</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P2" t="n">
-        <v>202.7097910676452</v>
+        <v>198.4982193987527</v>
       </c>
       <c r="Q2" t="n">
-        <v>152.2266110354129</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R2" t="n">
-        <v>88.54908363559406</v>
+        <v>86.70935596392172</v>
       </c>
       <c r="S2" t="n">
-        <v>32.12245626483752</v>
+        <v>31.45506853764538</v>
       </c>
       <c r="T2" t="n">
-        <v>6.170753803590836</v>
+        <v>6.042547998838951</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1127721997229621</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7542305786895992</v>
+        <v>0.7385604123878564</v>
       </c>
       <c r="H3" t="n">
-        <v>7.284279536291656</v>
+        <v>7.132938719640614</v>
       </c>
       <c r="I3" t="n">
-        <v>25.96802650312875</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J3" t="n">
-        <v>71.25824954189763</v>
+        <v>69.77776247038078</v>
       </c>
       <c r="K3" t="n">
-        <v>121.7916983141008</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L3" t="n">
-        <v>163.7639684124062</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M3" t="n">
-        <v>191.1048268899041</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N3" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O3" t="n">
-        <v>179.4506412376083</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P3" t="n">
-        <v>144.0249602411744</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.27687176395656</v>
+        <v>94.27658878129901</v>
       </c>
       <c r="R3" t="n">
-        <v>46.82845645583321</v>
+        <v>45.85553156913377</v>
       </c>
       <c r="S3" t="n">
-        <v>14.00950219627391</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T3" t="n">
-        <v>3.040078516735708</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04962043280852629</v>
+        <v>0.04858950081499057</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6323215809261379</v>
+        <v>0.6191842398937593</v>
       </c>
       <c r="H4" t="n">
-        <v>5.621913692234211</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I4" t="n">
-        <v>19.0156344518515</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J4" t="n">
-        <v>44.70513577147795</v>
+        <v>43.77632576048878</v>
       </c>
       <c r="K4" t="n">
-        <v>73.46427094760037</v>
+        <v>71.93795078038401</v>
       </c>
       <c r="L4" t="n">
-        <v>94.00897394969145</v>
+        <v>92.05580962929582</v>
       </c>
       <c r="M4" t="n">
-        <v>99.11928199917631</v>
+        <v>97.05994407716446</v>
       </c>
       <c r="N4" t="n">
-        <v>96.76244701572442</v>
+        <v>94.75207554665143</v>
       </c>
       <c r="O4" t="n">
-        <v>89.37578127490541</v>
+        <v>87.51887783516521</v>
       </c>
       <c r="P4" t="n">
-        <v>76.47642102401214</v>
+        <v>74.88751934133246</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.94830983555142</v>
+        <v>51.84823666964925</v>
       </c>
       <c r="R4" t="n">
-        <v>28.43147762964252</v>
+        <v>27.84077500467757</v>
       </c>
       <c r="S4" t="n">
-        <v>11.01964064214005</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T4" t="n">
-        <v>2.701737663957134</v>
+        <v>2.645605388636971</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03449026805051665</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,16 +31278,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.409652496537027</v>
+        <v>1.409652496537026</v>
       </c>
       <c r="H5" t="n">
-        <v>14.43660363015983</v>
+        <v>14.43660363015982</v>
       </c>
       <c r="I5" t="n">
-        <v>54.34562787274377</v>
+        <v>54.34562787274375</v>
       </c>
       <c r="J5" t="n">
-        <v>119.6424935779596</v>
+        <v>119.6424935779595</v>
       </c>
       <c r="K5" t="n">
         <v>179.3130837563719</v>
@@ -31297,7 +31299,7 @@
         <v>247.5226439325573</v>
       </c>
       <c r="N5" t="n">
-        <v>251.5278190883432</v>
+        <v>251.5278190883431</v>
       </c>
       <c r="O5" t="n">
         <v>237.5105870759031</v>
@@ -31309,13 +31311,13 @@
         <v>152.2266110354129</v>
       </c>
       <c r="R5" t="n">
-        <v>88.54908363559407</v>
+        <v>88.54908363559406</v>
       </c>
       <c r="S5" t="n">
         <v>32.12245626483752</v>
       </c>
       <c r="T5" t="n">
-        <v>6.170753803590837</v>
+        <v>6.170753803590836</v>
       </c>
       <c r="U5" t="n">
         <v>0.1127721997229621</v>
@@ -31355,13 +31357,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7542305786895993</v>
+        <v>0.7542305786895992</v>
       </c>
       <c r="H6" t="n">
-        <v>7.284279536291657</v>
+        <v>7.284279536291656</v>
       </c>
       <c r="I6" t="n">
-        <v>25.96802650312875</v>
+        <v>25.96802650312874</v>
       </c>
       <c r="J6" t="n">
         <v>71.25824954189763</v>
@@ -31382,13 +31384,13 @@
         <v>179.4506412376083</v>
       </c>
       <c r="P6" t="n">
-        <v>144.0249602411745</v>
+        <v>144.0249602411744</v>
       </c>
       <c r="Q6" t="n">
-        <v>96.27687176395658</v>
+        <v>96.27687176395656</v>
       </c>
       <c r="R6" t="n">
-        <v>46.82845645583321</v>
+        <v>46.8284564558332</v>
       </c>
       <c r="S6" t="n">
         <v>14.00950219627391</v>
@@ -31397,7 +31399,7 @@
         <v>3.040078516735708</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04962043280852629</v>
+        <v>0.04962043280852628</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,37 +31436,37 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6323215809261379</v>
+        <v>0.6323215809261378</v>
       </c>
       <c r="H7" t="n">
-        <v>5.621913692234212</v>
+        <v>5.621913692234211</v>
       </c>
       <c r="I7" t="n">
         <v>19.0156344518515</v>
       </c>
       <c r="J7" t="n">
-        <v>44.70513577147795</v>
+        <v>44.70513577147794</v>
       </c>
       <c r="K7" t="n">
-        <v>73.46427094760037</v>
+        <v>73.46427094760035</v>
       </c>
       <c r="L7" t="n">
-        <v>94.00897394969147</v>
+        <v>94.00897394969145</v>
       </c>
       <c r="M7" t="n">
-        <v>99.11928199917631</v>
+        <v>99.11928199917629</v>
       </c>
       <c r="N7" t="n">
-        <v>96.76244701572443</v>
+        <v>96.7624470157244</v>
       </c>
       <c r="O7" t="n">
-        <v>89.37578127490542</v>
+        <v>89.37578127490541</v>
       </c>
       <c r="P7" t="n">
-        <v>76.47642102401214</v>
+        <v>76.47642102401213</v>
       </c>
       <c r="Q7" t="n">
-        <v>52.94830983555143</v>
+        <v>52.94830983555142</v>
       </c>
       <c r="R7" t="n">
         <v>28.43147762964252</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.496864636411381</v>
+        <v>1.409652496537026</v>
       </c>
       <c r="H8" t="n">
-        <v>15.32976495764806</v>
+        <v>14.43660363015982</v>
       </c>
       <c r="I8" t="n">
-        <v>57.70787389524983</v>
+        <v>54.34562787274375</v>
       </c>
       <c r="J8" t="n">
-        <v>127.0445149346206</v>
+        <v>119.6424935779595</v>
       </c>
       <c r="K8" t="n">
-        <v>190.4067949939144</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2164661104893</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M8" t="n">
-        <v>262.8363325882701</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N8" t="n">
-        <v>267.089299236474</v>
+        <v>251.5278190883431</v>
       </c>
       <c r="O8" t="n">
-        <v>252.2048515081583</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P8" t="n">
-        <v>215.2510057967523</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q8" t="n">
-        <v>161.6445410052697</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R8" t="n">
-        <v>94.02742321697652</v>
+        <v>88.54908363559406</v>
       </c>
       <c r="S8" t="n">
-        <v>34.10980290222439</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T8" t="n">
-        <v>6.552524945890824</v>
+        <v>6.170753803590836</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1197491709129105</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8008931873025619</v>
+        <v>0.7542305786895992</v>
       </c>
       <c r="H9" t="n">
-        <v>7.734942098422112</v>
+        <v>7.284279536291656</v>
       </c>
       <c r="I9" t="n">
-        <v>27.57461193125049</v>
+        <v>25.96802650312874</v>
       </c>
       <c r="J9" t="n">
-        <v>75.66684275300214</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K9" t="n">
-        <v>129.3266863022738</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L9" t="n">
-        <v>173.8956896377778</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M9" t="n">
-        <v>202.9280676774956</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N9" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O9" t="n">
-        <v>190.5528628579038</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P9" t="n">
-        <v>152.9354718806094</v>
+        <v>144.0249602411744</v>
       </c>
       <c r="Q9" t="n">
-        <v>102.2333128212884</v>
+        <v>96.27687176395656</v>
       </c>
       <c r="R9" t="n">
-        <v>49.72563140111873</v>
+        <v>46.8284564558332</v>
       </c>
       <c r="S9" t="n">
-        <v>14.87623968520328</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T9" t="n">
-        <v>3.228161575136202</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05269034126990541</v>
+        <v>0.04962043280852628</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6714419444886303</v>
+        <v>0.6323215809261378</v>
       </c>
       <c r="H10" t="n">
-        <v>5.969729288271644</v>
+        <v>5.621913692234211</v>
       </c>
       <c r="I10" t="n">
-        <v>20.19209047607627</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J10" t="n">
-        <v>47.47094547534616</v>
+        <v>44.70513577147794</v>
       </c>
       <c r="K10" t="n">
-        <v>78.00934591422448</v>
+        <v>73.46427094760035</v>
       </c>
       <c r="L10" t="n">
-        <v>99.82510509242783</v>
+        <v>94.00897394969145</v>
       </c>
       <c r="M10" t="n">
-        <v>105.2515768074314</v>
+        <v>99.11928199917629</v>
       </c>
       <c r="N10" t="n">
-        <v>102.748929559792</v>
+        <v>96.7624470157244</v>
       </c>
       <c r="O10" t="n">
-        <v>94.90526684462934</v>
+        <v>89.37578127490541</v>
       </c>
       <c r="P10" t="n">
-        <v>81.20785117706122</v>
+        <v>76.47642102401213</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.22410682440704</v>
+        <v>52.94830983555142</v>
       </c>
       <c r="R10" t="n">
-        <v>30.19047143127968</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S10" t="n">
-        <v>11.70140188713367</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T10" t="n">
-        <v>2.868888308269602</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03662410606301624</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.7698774674594</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H11" t="n">
-        <v>18.12575761361859</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I11" t="n">
-        <v>68.23320106422858</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J11" t="n">
-        <v>150.2161377037824</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K11" t="n">
-        <v>225.1350509013388</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L11" t="n">
-        <v>279.2999384460995</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M11" t="n">
-        <v>310.7749968580306</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N11" t="n">
-        <v>315.8036612124496</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O11" t="n">
-        <v>298.2044421454002</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P11" t="n">
-        <v>254.5105921674962</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q11" t="n">
-        <v>191.1268553641064</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R11" t="n">
-        <v>111.1770654652966</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S11" t="n">
-        <v>40.33108278973111</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T11" t="n">
-        <v>7.747638613803527</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U11" t="n">
-        <v>0.141590197396752</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9469679298769806</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H12" t="n">
-        <v>9.145716585917157</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I12" t="n">
-        <v>32.60393969093991</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J12" t="n">
-        <v>89.46770253280721</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K12" t="n">
-        <v>152.9145538345649</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L12" t="n">
         <v>202.635780428066</v>
@@ -31856,22 +31858,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P12" t="n">
-        <v>180.8293409253684</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q12" t="n">
-        <v>120.8796255751739</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R12" t="n">
-        <v>58.79507901464273</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S12" t="n">
-        <v>17.58951396065356</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T12" t="n">
-        <v>3.81694529630239</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06230052170243296</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7939061016943911</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H13" t="n">
-        <v>7.058546976882865</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I13" t="n">
-        <v>23.87492167640952</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J13" t="n">
-        <v>56.12916138979345</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K13" t="n">
-        <v>92.23745436049379</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L13" t="n">
-        <v>118.0321853373643</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M13" t="n">
-        <v>124.4483901046944</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N13" t="n">
-        <v>121.4892855438336</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O13" t="n">
-        <v>112.2150188104036</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P13" t="n">
-        <v>96.01933433583797</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.47881002460943</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R13" t="n">
-        <v>35.69690526345871</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S13" t="n">
-        <v>13.83561815407407</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T13" t="n">
-        <v>3.392144252694216</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04330396918333048</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.7698774674594</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H14" t="n">
-        <v>18.12575761361859</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I14" t="n">
-        <v>68.23320106422858</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J14" t="n">
-        <v>150.2161377037824</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K14" t="n">
-        <v>225.1350509013388</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L14" t="n">
-        <v>279.2999384460995</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M14" t="n">
-        <v>310.7749968580306</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N14" t="n">
-        <v>315.8036612124496</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O14" t="n">
-        <v>298.2044421454002</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P14" t="n">
-        <v>254.5105921674962</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q14" t="n">
-        <v>191.1268553641064</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R14" t="n">
-        <v>111.1770654652966</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S14" t="n">
-        <v>40.33108278973111</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T14" t="n">
-        <v>7.747638613803527</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U14" t="n">
-        <v>0.141590197396752</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9469679298769806</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H15" t="n">
-        <v>9.145716585917157</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I15" t="n">
-        <v>32.60393969093991</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J15" t="n">
-        <v>89.46770253280721</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K15" t="n">
-        <v>152.9145538345649</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L15" t="n">
         <v>202.635780428066</v>
@@ -32093,22 +32095,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P15" t="n">
-        <v>180.8293409253684</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q15" t="n">
-        <v>120.8796255751739</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R15" t="n">
-        <v>58.79507901464273</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S15" t="n">
-        <v>17.58951396065356</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T15" t="n">
-        <v>3.81694529630239</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06230052170243296</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7939061016943911</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H16" t="n">
-        <v>7.058546976882865</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I16" t="n">
-        <v>23.87492167640952</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J16" t="n">
-        <v>56.12916138979345</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K16" t="n">
-        <v>92.23745436049379</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L16" t="n">
-        <v>118.0321853373643</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M16" t="n">
-        <v>124.4483901046944</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N16" t="n">
-        <v>121.4892855438336</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O16" t="n">
-        <v>112.2150188104036</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P16" t="n">
-        <v>96.01933433583797</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q16" t="n">
-        <v>66.47881002460943</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R16" t="n">
-        <v>35.69690526345871</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S16" t="n">
-        <v>13.83561815407407</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T16" t="n">
-        <v>3.392144252694216</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04330396918333048</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.7698774674594</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H17" t="n">
-        <v>18.12575761361859</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I17" t="n">
-        <v>68.23320106422858</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J17" t="n">
-        <v>150.2161377037824</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K17" t="n">
-        <v>225.1350509013388</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L17" t="n">
-        <v>279.2999384460995</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M17" t="n">
-        <v>310.7749968580306</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N17" t="n">
-        <v>315.8036612124496</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O17" t="n">
-        <v>298.2044421454002</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P17" t="n">
-        <v>254.5105921674962</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q17" t="n">
-        <v>191.1268553641064</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R17" t="n">
-        <v>111.1770654652966</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S17" t="n">
-        <v>40.33108278973111</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T17" t="n">
-        <v>7.747638613803527</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U17" t="n">
-        <v>0.141590197396752</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9469679298769806</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H18" t="n">
-        <v>9.145716585917157</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I18" t="n">
-        <v>32.60393969093991</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J18" t="n">
-        <v>89.46770253280721</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K18" t="n">
-        <v>152.9145538345649</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L18" t="n">
         <v>202.635780428066</v>
@@ -32330,22 +32332,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P18" t="n">
-        <v>180.8293409253684</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q18" t="n">
-        <v>120.8796255751739</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R18" t="n">
-        <v>58.79507901464273</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S18" t="n">
-        <v>17.58951396065356</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T18" t="n">
-        <v>3.81694529630239</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06230052170243296</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7939061016943911</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H19" t="n">
-        <v>7.058546976882865</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I19" t="n">
-        <v>23.87492167640952</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J19" t="n">
-        <v>56.12916138979345</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K19" t="n">
-        <v>92.23745436049379</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L19" t="n">
-        <v>118.0321853373643</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M19" t="n">
-        <v>124.4483901046944</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N19" t="n">
-        <v>121.4892855438336</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O19" t="n">
-        <v>112.2150188104036</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P19" t="n">
-        <v>96.01933433583797</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.47881002460943</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R19" t="n">
-        <v>35.69690526345871</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S19" t="n">
-        <v>13.83561815407407</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T19" t="n">
-        <v>3.392144252694216</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04330396918333048</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.7698774674594</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H20" t="n">
-        <v>18.12575761361859</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I20" t="n">
-        <v>68.23320106422858</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J20" t="n">
-        <v>150.2161377037824</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K20" t="n">
-        <v>225.1350509013388</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L20" t="n">
-        <v>279.2999384460995</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M20" t="n">
-        <v>310.7749968580306</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N20" t="n">
-        <v>315.8036612124496</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O20" t="n">
-        <v>298.2044421454002</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P20" t="n">
-        <v>254.5105921674962</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q20" t="n">
-        <v>191.1268553641064</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R20" t="n">
-        <v>111.1770654652966</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S20" t="n">
-        <v>40.33108278973111</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T20" t="n">
-        <v>7.747638613803527</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U20" t="n">
-        <v>0.141590197396752</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9469679298769806</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H21" t="n">
-        <v>9.145716585917157</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I21" t="n">
-        <v>32.60393969093991</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J21" t="n">
-        <v>89.46770253280721</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K21" t="n">
-        <v>152.9145538345649</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L21" t="n">
         <v>202.635780428066</v>
@@ -32567,22 +32569,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P21" t="n">
-        <v>180.8293409253684</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q21" t="n">
-        <v>120.8796255751739</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R21" t="n">
-        <v>58.79507901464273</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S21" t="n">
-        <v>17.58951396065356</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T21" t="n">
-        <v>3.81694529630239</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06230052170243296</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7939061016943911</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H22" t="n">
-        <v>7.058546976882865</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I22" t="n">
-        <v>23.87492167640952</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J22" t="n">
-        <v>56.12916138979345</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K22" t="n">
-        <v>92.23745436049379</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L22" t="n">
-        <v>118.0321853373643</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M22" t="n">
-        <v>124.4483901046944</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N22" t="n">
-        <v>121.4892855438336</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O22" t="n">
-        <v>112.2150188104036</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P22" t="n">
-        <v>96.01933433583797</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.47881002460943</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R22" t="n">
-        <v>35.69690526345871</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S22" t="n">
-        <v>13.83561815407407</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T22" t="n">
-        <v>3.392144252694216</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04330396918333048</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.7698774674594</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H23" t="n">
-        <v>18.12575761361859</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I23" t="n">
-        <v>68.23320106422858</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J23" t="n">
-        <v>150.2161377037824</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K23" t="n">
-        <v>225.1350509013388</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L23" t="n">
-        <v>279.2999384460995</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M23" t="n">
-        <v>310.7749968580306</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N23" t="n">
-        <v>315.8036612124496</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O23" t="n">
-        <v>298.2044421454002</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P23" t="n">
-        <v>254.5105921674962</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q23" t="n">
-        <v>191.1268553641064</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R23" t="n">
-        <v>111.1770654652966</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S23" t="n">
-        <v>40.33108278973111</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T23" t="n">
-        <v>7.747638613803527</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U23" t="n">
-        <v>0.141590197396752</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9469679298769806</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H24" t="n">
-        <v>9.145716585917157</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I24" t="n">
-        <v>32.60393969093991</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J24" t="n">
-        <v>89.46770253280721</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K24" t="n">
-        <v>152.9145538345649</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L24" t="n">
         <v>202.635780428066</v>
@@ -32804,22 +32806,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P24" t="n">
-        <v>180.8293409253684</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q24" t="n">
-        <v>120.8796255751739</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R24" t="n">
-        <v>58.79507901464273</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S24" t="n">
-        <v>17.58951396065356</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T24" t="n">
-        <v>3.81694529630239</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06230052170243296</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7939061016943911</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H25" t="n">
-        <v>7.058546976882865</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I25" t="n">
-        <v>23.87492167640952</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J25" t="n">
-        <v>56.12916138979345</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K25" t="n">
-        <v>92.23745436049379</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L25" t="n">
-        <v>118.0321853373643</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M25" t="n">
-        <v>124.4483901046944</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N25" t="n">
-        <v>121.4892855438336</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O25" t="n">
-        <v>112.2150188104036</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P25" t="n">
-        <v>96.01933433583797</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.47881002460943</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R25" t="n">
-        <v>35.69690526345871</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S25" t="n">
-        <v>13.83561815407407</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T25" t="n">
-        <v>3.392144252694216</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04330396918333048</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.7698774674594</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H26" t="n">
-        <v>18.12575761361859</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I26" t="n">
-        <v>68.23320106422858</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J26" t="n">
-        <v>150.2161377037824</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K26" t="n">
-        <v>225.1350509013388</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L26" t="n">
-        <v>279.2999384460995</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M26" t="n">
-        <v>310.7749968580306</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N26" t="n">
-        <v>315.8036612124496</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O26" t="n">
-        <v>298.2044421454002</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P26" t="n">
-        <v>254.5105921674962</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q26" t="n">
-        <v>191.1268553641064</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R26" t="n">
-        <v>111.1770654652966</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S26" t="n">
-        <v>40.33108278973111</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T26" t="n">
-        <v>7.747638613803527</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U26" t="n">
-        <v>0.141590197396752</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9469679298769806</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H27" t="n">
-        <v>9.145716585917157</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I27" t="n">
-        <v>32.60393969093991</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J27" t="n">
-        <v>89.46770253280721</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K27" t="n">
-        <v>152.9145538345649</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L27" t="n">
         <v>202.635780428066</v>
@@ -33041,22 +33043,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P27" t="n">
-        <v>180.8293409253684</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q27" t="n">
-        <v>120.8796255751739</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R27" t="n">
-        <v>58.79507901464273</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S27" t="n">
-        <v>17.58951396065356</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T27" t="n">
-        <v>3.81694529630239</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06230052170243296</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7939061016943911</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H28" t="n">
-        <v>7.058546976882865</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I28" t="n">
-        <v>23.87492167640952</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J28" t="n">
-        <v>56.12916138979345</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K28" t="n">
-        <v>92.23745436049379</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L28" t="n">
-        <v>118.0321853373643</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M28" t="n">
-        <v>124.4483901046944</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N28" t="n">
-        <v>121.4892855438336</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O28" t="n">
-        <v>112.2150188104036</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P28" t="n">
-        <v>96.01933433583797</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.47881002460943</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R28" t="n">
-        <v>35.69690526345871</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S28" t="n">
-        <v>13.83561815407407</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T28" t="n">
-        <v>3.392144252694216</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04330396918333048</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.7698774674594</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H29" t="n">
-        <v>18.12575761361859</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I29" t="n">
-        <v>68.23320106422858</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J29" t="n">
-        <v>150.2161377037824</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K29" t="n">
-        <v>225.1350509013388</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L29" t="n">
-        <v>279.2999384460995</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M29" t="n">
-        <v>310.7749968580306</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N29" t="n">
-        <v>315.8036612124496</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O29" t="n">
-        <v>298.2044421454002</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P29" t="n">
-        <v>254.5105921674962</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q29" t="n">
-        <v>191.1268553641064</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R29" t="n">
-        <v>111.1770654652966</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S29" t="n">
-        <v>40.33108278973111</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T29" t="n">
-        <v>7.747638613803527</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U29" t="n">
-        <v>0.141590197396752</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9469679298769806</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H30" t="n">
-        <v>9.145716585917157</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I30" t="n">
-        <v>32.60393969093991</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J30" t="n">
-        <v>89.46770253280721</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K30" t="n">
-        <v>152.9145538345649</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L30" t="n">
         <v>202.635780428066</v>
@@ -33278,22 +33280,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P30" t="n">
-        <v>180.8293409253684</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q30" t="n">
-        <v>120.8796255751739</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R30" t="n">
-        <v>58.79507901464273</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S30" t="n">
-        <v>17.58951396065356</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T30" t="n">
-        <v>3.81694529630239</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06230052170243296</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7939061016943911</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H31" t="n">
-        <v>7.058546976882865</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I31" t="n">
-        <v>23.87492167640952</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J31" t="n">
-        <v>56.12916138979345</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K31" t="n">
-        <v>92.23745436049379</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L31" t="n">
-        <v>118.0321853373643</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M31" t="n">
-        <v>124.4483901046944</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N31" t="n">
-        <v>121.4892855438336</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O31" t="n">
-        <v>112.2150188104036</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P31" t="n">
-        <v>96.01933433583797</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.47881002460943</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R31" t="n">
-        <v>35.69690526345871</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S31" t="n">
-        <v>13.83561815407407</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T31" t="n">
-        <v>3.392144252694216</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04330396918333048</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.7698774674594</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H32" t="n">
-        <v>18.12575761361859</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I32" t="n">
-        <v>68.23320106422858</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J32" t="n">
-        <v>150.2161377037824</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K32" t="n">
-        <v>225.1350509013388</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L32" t="n">
-        <v>279.2999384460995</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M32" t="n">
-        <v>310.7749968580306</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N32" t="n">
-        <v>315.8036612124496</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O32" t="n">
-        <v>298.2044421454002</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P32" t="n">
-        <v>254.5105921674962</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q32" t="n">
-        <v>191.1268553641064</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R32" t="n">
-        <v>111.1770654652966</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S32" t="n">
-        <v>40.33108278973111</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T32" t="n">
-        <v>7.747638613803527</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U32" t="n">
-        <v>0.141590197396752</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9469679298769806</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H33" t="n">
-        <v>9.145716585917157</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I33" t="n">
-        <v>32.60393969093991</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J33" t="n">
-        <v>89.46770253280721</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K33" t="n">
-        <v>152.9145538345649</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L33" t="n">
         <v>202.635780428066</v>
@@ -33515,22 +33517,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P33" t="n">
-        <v>180.8293409253684</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q33" t="n">
-        <v>120.8796255751739</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R33" t="n">
-        <v>58.79507901464273</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S33" t="n">
-        <v>17.58951396065356</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T33" t="n">
-        <v>3.81694529630239</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06230052170243296</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7939061016943911</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H34" t="n">
-        <v>7.058546976882865</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I34" t="n">
-        <v>23.87492167640952</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J34" t="n">
-        <v>56.12916138979345</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K34" t="n">
-        <v>92.23745436049379</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L34" t="n">
-        <v>118.0321853373643</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M34" t="n">
-        <v>124.4483901046944</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N34" t="n">
-        <v>121.4892855438336</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O34" t="n">
-        <v>112.2150188104036</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P34" t="n">
-        <v>96.01933433583797</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.47881002460943</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R34" t="n">
-        <v>35.69690526345871</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S34" t="n">
-        <v>13.83561815407407</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T34" t="n">
-        <v>3.392144252694216</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04330396918333048</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.7698774674594</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H35" t="n">
-        <v>18.12575761361859</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I35" t="n">
-        <v>68.23320106422858</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J35" t="n">
-        <v>150.2161377037824</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K35" t="n">
-        <v>225.1350509013388</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L35" t="n">
-        <v>279.2999384460995</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M35" t="n">
-        <v>310.7749968580306</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N35" t="n">
-        <v>315.8036612124496</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O35" t="n">
-        <v>298.2044421454002</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P35" t="n">
-        <v>254.5105921674962</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q35" t="n">
-        <v>191.1268553641064</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R35" t="n">
-        <v>111.1770654652966</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S35" t="n">
-        <v>40.33108278973111</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T35" t="n">
-        <v>7.747638613803527</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U35" t="n">
-        <v>0.141590197396752</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9469679298769806</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H36" t="n">
-        <v>9.145716585917157</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I36" t="n">
-        <v>32.60393969093991</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J36" t="n">
-        <v>89.46770253280721</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K36" t="n">
-        <v>152.9145538345649</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L36" t="n">
         <v>202.635780428066</v>
@@ -33752,22 +33754,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P36" t="n">
-        <v>180.8293409253684</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q36" t="n">
-        <v>120.8796255751739</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R36" t="n">
-        <v>58.79507901464273</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S36" t="n">
-        <v>17.58951396065356</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T36" t="n">
-        <v>3.81694529630239</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06230052170243296</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7939061016943911</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H37" t="n">
-        <v>7.058546976882865</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I37" t="n">
-        <v>23.87492167640952</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J37" t="n">
-        <v>56.12916138979345</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K37" t="n">
-        <v>92.23745436049379</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L37" t="n">
-        <v>118.0321853373643</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M37" t="n">
-        <v>124.4483901046944</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N37" t="n">
-        <v>121.4892855438336</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O37" t="n">
-        <v>112.2150188104036</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P37" t="n">
-        <v>96.01933433583797</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.47881002460943</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R37" t="n">
-        <v>35.69690526345871</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S37" t="n">
-        <v>13.83561815407407</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T37" t="n">
-        <v>3.392144252694216</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04330396918333048</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.7698774674594</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H38" t="n">
-        <v>18.12575761361859</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I38" t="n">
-        <v>68.23320106422858</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J38" t="n">
-        <v>150.2161377037824</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K38" t="n">
-        <v>225.1350509013388</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L38" t="n">
-        <v>279.2999384460995</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M38" t="n">
-        <v>310.7749968580306</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N38" t="n">
-        <v>315.8036612124496</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O38" t="n">
-        <v>298.2044421454002</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P38" t="n">
-        <v>254.5105921674962</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q38" t="n">
-        <v>191.1268553641064</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R38" t="n">
-        <v>111.1770654652966</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S38" t="n">
-        <v>40.33108278973111</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T38" t="n">
-        <v>7.747638613803527</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U38" t="n">
-        <v>0.141590197396752</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9469679298769806</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H39" t="n">
-        <v>9.145716585917157</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I39" t="n">
-        <v>32.60393969093991</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J39" t="n">
-        <v>89.46770253280721</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K39" t="n">
-        <v>152.9145538345649</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L39" t="n">
         <v>202.635780428066</v>
@@ -33989,22 +33991,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P39" t="n">
-        <v>180.8293409253684</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q39" t="n">
-        <v>120.8796255751739</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R39" t="n">
-        <v>58.79507901464273</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S39" t="n">
-        <v>17.58951396065356</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T39" t="n">
-        <v>3.81694529630239</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06230052170243296</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7939061016943911</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H40" t="n">
-        <v>7.058546976882865</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I40" t="n">
-        <v>23.87492167640952</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J40" t="n">
-        <v>56.12916138979345</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K40" t="n">
-        <v>92.23745436049379</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L40" t="n">
-        <v>118.0321853373643</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M40" t="n">
-        <v>124.4483901046944</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N40" t="n">
-        <v>121.4892855438336</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O40" t="n">
-        <v>112.2150188104036</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P40" t="n">
-        <v>96.01933433583797</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.47881002460943</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R40" t="n">
-        <v>35.69690526345871</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S40" t="n">
-        <v>13.83561815407407</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T40" t="n">
-        <v>3.392144252694216</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04330396918333048</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.7698774674594</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H41" t="n">
-        <v>18.12575761361859</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I41" t="n">
-        <v>68.23320106422858</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J41" t="n">
-        <v>150.2161377037824</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K41" t="n">
-        <v>225.1350509013388</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L41" t="n">
-        <v>279.2999384460995</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M41" t="n">
-        <v>310.7749968580306</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N41" t="n">
-        <v>315.8036612124496</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O41" t="n">
-        <v>298.2044421454002</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P41" t="n">
-        <v>254.5105921674962</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q41" t="n">
-        <v>191.1268553641064</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R41" t="n">
-        <v>111.1770654652966</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S41" t="n">
-        <v>40.33108278973111</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T41" t="n">
-        <v>7.747638613803527</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U41" t="n">
-        <v>0.141590197396752</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9469679298769806</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H42" t="n">
-        <v>9.145716585917157</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I42" t="n">
-        <v>32.60393969093991</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J42" t="n">
-        <v>89.46770253280721</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K42" t="n">
-        <v>152.9145538345649</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L42" t="n">
         <v>202.635780428066</v>
@@ -34226,22 +34228,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P42" t="n">
-        <v>180.8293409253684</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q42" t="n">
-        <v>120.8796255751739</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R42" t="n">
-        <v>58.79507901464273</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S42" t="n">
-        <v>17.58951396065356</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T42" t="n">
-        <v>3.81694529630239</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06230052170243296</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7939061016943911</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H43" t="n">
-        <v>7.058546976882865</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I43" t="n">
-        <v>23.87492167640952</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J43" t="n">
-        <v>56.12916138979345</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K43" t="n">
-        <v>92.23745436049379</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L43" t="n">
-        <v>118.0321853373643</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M43" t="n">
-        <v>124.4483901046944</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N43" t="n">
-        <v>121.4892855438336</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O43" t="n">
-        <v>112.2150188104036</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P43" t="n">
-        <v>96.01933433583797</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q43" t="n">
-        <v>66.47881002460943</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R43" t="n">
-        <v>35.69690526345871</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S43" t="n">
-        <v>13.83561815407407</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T43" t="n">
-        <v>3.392144252694216</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04330396918333048</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.7698774674594</v>
+        <v>1.918704696476676</v>
       </c>
       <c r="H44" t="n">
-        <v>18.12575761361859</v>
+        <v>19.64993447279176</v>
       </c>
       <c r="I44" t="n">
-        <v>68.23320106422858</v>
+        <v>73.97086281091711</v>
       </c>
       <c r="J44" t="n">
-        <v>150.2161377037824</v>
+        <v>162.8476627325874</v>
       </c>
       <c r="K44" t="n">
-        <v>225.1350509013388</v>
+        <v>244.0664325344451</v>
       </c>
       <c r="L44" t="n">
-        <v>279.2999384460995</v>
+        <v>302.7859913892433</v>
       </c>
       <c r="M44" t="n">
-        <v>310.7749968580306</v>
+        <v>336.9077560352104</v>
       </c>
       <c r="N44" t="n">
-        <v>315.8036612124496</v>
+        <v>342.3592757540747</v>
       </c>
       <c r="O44" t="n">
-        <v>298.2044421454002</v>
+        <v>323.2801559284848</v>
       </c>
       <c r="P44" t="n">
-        <v>254.5105921674962</v>
+        <v>275.9121337342168</v>
       </c>
       <c r="Q44" t="n">
-        <v>191.1268553641064</v>
+        <v>207.1985217916458</v>
       </c>
       <c r="R44" t="n">
-        <v>111.1770654652966</v>
+        <v>120.5258338900531</v>
       </c>
       <c r="S44" t="n">
-        <v>40.33108278973111</v>
+        <v>43.72248327096229</v>
       </c>
       <c r="T44" t="n">
-        <v>7.747638613803527</v>
+        <v>8.399129808826652</v>
       </c>
       <c r="U44" t="n">
-        <v>0.141590197396752</v>
+        <v>0.153496375718134</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9469679298769806</v>
+        <v>1.026597517553535</v>
       </c>
       <c r="H45" t="n">
-        <v>9.145716585917157</v>
+        <v>9.914770761635461</v>
       </c>
       <c r="I45" t="n">
-        <v>32.60393969093991</v>
+        <v>35.34557242454058</v>
       </c>
       <c r="J45" t="n">
-        <v>89.46770253280721</v>
+        <v>96.99095230535399</v>
       </c>
       <c r="K45" t="n">
-        <v>152.9145538345649</v>
+        <v>165.7729859814409</v>
       </c>
       <c r="L45" t="n">
-        <v>202.635780428066</v>
+        <v>209.2019791471139</v>
       </c>
       <c r="M45" t="n">
-        <v>207.8710246109518</v>
+        <v>214.7136948550123</v>
       </c>
       <c r="N45" t="n">
-        <v>192.087253921875</v>
+        <v>198.9299241659354</v>
       </c>
       <c r="O45" t="n">
-        <v>208.5470075</v>
+        <v>215.3896777440604</v>
       </c>
       <c r="P45" t="n">
-        <v>180.8293409253684</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q45" t="n">
-        <v>120.8796255751739</v>
+        <v>131.0442725915706</v>
       </c>
       <c r="R45" t="n">
-        <v>58.79507901464273</v>
+        <v>63.7390985021397</v>
       </c>
       <c r="S45" t="n">
-        <v>17.58951396065356</v>
+        <v>19.06859862648781</v>
       </c>
       <c r="T45" t="n">
-        <v>3.81694529630239</v>
+        <v>4.13790841505131</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06230052170243296</v>
+        <v>0.0675393103653642</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7939061016943911</v>
+        <v>0.860664873071198</v>
       </c>
       <c r="H46" t="n">
-        <v>7.058546976882865</v>
+        <v>7.652093144214838</v>
       </c>
       <c r="I46" t="n">
-        <v>23.87492167640952</v>
+        <v>25.88254000108658</v>
       </c>
       <c r="J46" t="n">
-        <v>56.12916138979345</v>
+        <v>60.84900652613369</v>
       </c>
       <c r="K46" t="n">
-        <v>92.23745436049379</v>
+        <v>99.99360979863552</v>
       </c>
       <c r="L46" t="n">
-        <v>118.0321853373643</v>
+        <v>127.9573939473307</v>
       </c>
       <c r="M46" t="n">
-        <v>124.4483901046944</v>
+        <v>134.9131309669697</v>
       </c>
       <c r="N46" t="n">
-        <v>121.4892855438336</v>
+        <v>131.7051982582499</v>
       </c>
       <c r="O46" t="n">
-        <v>112.2150188104036</v>
+        <v>121.6510676955545</v>
       </c>
       <c r="P46" t="n">
-        <v>96.01933433583797</v>
+        <v>104.0935042849019</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.47881002460943</v>
+        <v>72.06894678053459</v>
       </c>
       <c r="R46" t="n">
-        <v>35.69690526345871</v>
+        <v>38.69862238372858</v>
       </c>
       <c r="S46" t="n">
-        <v>13.83561815407407</v>
+        <v>14.99904146979533</v>
       </c>
       <c r="T46" t="n">
-        <v>3.392144252694216</v>
+        <v>3.677386275849663</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04330396918333048</v>
+        <v>0.04694535671297449</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -38020,19 +38022,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>6.842670244060457</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>0.02638994032400888</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>6.842670244060457</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>6.842670244060457</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>6.539808778723904</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>6.566198719047913</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>6.842670244060457</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>6.842670244060457</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>6.842670244060457</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_7_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_7_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>217019.0649619285</v>
+        <v>81611.4756972394</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1771316.831510079</v>
+        <v>1664213.506290205</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24021786.69306278</v>
+        <v>23879529.32664355</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5212971.031132191</v>
+        <v>5272305.494750406</v>
       </c>
     </row>
     <row r="11">
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>14.51302356503216</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
     </row>
     <row r="24">
@@ -2450,16 +2450,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>14.51302356503217</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>14.51302356503216</v>
       </c>
     </row>
     <row r="27">
@@ -2690,16 +2690,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>14.51302356503217</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2851,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>14.51302356503217</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>14.51302356503217</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2933,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>14.51302356503217</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
     </row>
     <row r="33">
@@ -3152,19 +3152,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>14.51302356503217</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>14.51302356503216</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3401,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>14.51302356503217</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>14.51302356503217</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>14.51302356503216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3644,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
     </row>
     <row r="40">
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>14.51302356503217</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>14.51302356503217</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3878,10 +3878,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3982,16 +3982,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>6.02702395096845</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4021,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>6.842670244060457</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>6.842670244060457</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>14.51302356503217</v>
       </c>
       <c r="V44" t="n">
-        <v>6.842670244060457</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4064,19 +4064,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>14.51302356503217</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.027023950968451</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4109,13 +4109,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>6.842670244060457</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>6.842670244060457</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>6.842670244060457</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>34.6052241263852</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>34.6052241263852</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>34.6052241263852</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>34.6052241263852</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>17.96169578549197</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>2.887043131405911</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>19.19936525831536</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>35.51168738522482</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>50.18030379588809</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>50.18030379588809</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>51.24875246727844</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>51.24875246727844</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>51.24875246727844</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>34.6052241263852</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>16.97140584920884</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>33.28372797611829</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>49.59605010302774</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>49.26484388904396</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>32.62131554815073</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>15.9777872072575</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>34.6052241263852</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>34.6052241263852</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>17.96169578549197</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>17.6304895715082</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>33.94281169841765</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>50.18030379588809</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>50.18030379588809</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>51.24875246727844</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>16.97140584920884</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>33.28372797611829</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>49.59605010302774</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>49.26484388904396</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>32.62131554815073</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>15.9777872072575</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>34.6052241263852</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>34.6052241263852</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>17.96169578549197</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>17.96169578549197</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>17.96169578549197</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>17.96169578549197</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>17.96169578549197</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>17.96169578549197</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>17.6304895715082</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>33.86798166897864</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>50.18030379588809</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>50.18030379588809</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>49.26484388904396</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>34.6052241263852</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>34.6052241263852</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>34.6052241263852</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>15.9777872072575</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>15.9777872072575</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>15.9777872072575</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>15.9777872072575</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>15.9777872072575</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>15.9777872072575</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>15.9777872072575</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>15.9777872072575</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>16.97140584920884</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>33.28372797611829</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>49.59605010302774</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>49.26484388904396</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>49.26484388904396</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>49.26484388904396</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>49.26484388904396</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>49.26484388904396</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>49.26484388904396</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>32.62131554815073</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>15.9777872072575</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>15.9777872072575</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>32.62131554815073</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>32.62131554815073</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>32.62131554815073</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>32.62131554815073</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>15.9777872072575</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>15.9777872072575</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>15.9777872072575</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>15.9777872072575</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>17.55565954206919</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>33.86798166897864</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>50.18030379588809</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>50.18030379588809</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>49.26484388904396</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>49.26484388904396</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>49.26484388904396</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>49.26484388904396</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>49.26484388904396</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>49.26484388904396</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>49.26484388904396</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>49.26484388904396</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>32.62131554815073</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>16.97140584920884</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>33.28372797611829</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>49.59605010302774</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>49.26484388904396</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>32.62131554815073</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>15.9777872072575</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>15.9777872072575</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>51.24875246727844</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>34.6052241263852</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>34.6052241263852</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>17.96169578549197</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>17.96169578549197</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>2.887043131405911</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>16.97140584920883</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>33.28372797611829</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>49.59605010302774</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>16.97140584920883</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>33.28372797611829</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>49.59605010302774</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>49.26484388904396</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>49.26484388904396</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>49.26484388904396</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>49.26484388904396</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>32.62131554815073</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>17.96169578549197</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>17.55565954206919</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>33.86798166897864</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>50.18030379588809</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>49.26484388904396</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>32.62131554815073</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>15.9777872072575</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>16.97140584920883</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>33.28372797611829</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>49.59605010302774</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>65.90837222993719</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>51.24875246727844</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>51.24875246727844</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>34.6052241263852</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>34.6052241263852</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>34.6052241263852</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>17.96169578549197</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>17.96169578549197</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>32.62131554815073</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>32.62131554815073</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>32.62131554815073</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>32.62131554815073</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>17.96169578549198</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>17.96169578549198</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>17.96169578549198</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>17.96169578549198</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>2.887043131405912</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>2.887043131405912</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>17.55565954206919</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>33.86798166897865</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>50.18030379588811</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>65.9083722299372</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>65.9083722299372</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.9083722299372</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>65.9083722299372</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>65.9083722299372</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>65.9083722299372</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>49.26484388904397</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>32.62131554815073</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>32.62131554815073</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>32.62131554815073</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>16.97140584920882</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>33.28372797611828</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>49.59605010302774</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>65.9083722299372</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.9083722299372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>65.9083722299372</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>51.24875246727844</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>34.60522412638521</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>34.60522412638521</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>34.60522412638521</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>17.96169578549198</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1.318167444598744</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6.635316600301049</v>
+        <v>51.24875246727844</v>
       </c>
       <c r="C44" t="n">
-        <v>6.635316600301049</v>
+        <v>51.24875246727844</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5474136195248366</v>
+        <v>34.60522412638521</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5474136195248366</v>
+        <v>17.96169578549198</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5474136195248366</v>
+        <v>17.96169578549198</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="J44" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="K44" t="n">
-        <v>0.5474136195248366</v>
+        <v>2.887043131405912</v>
       </c>
       <c r="L44" t="n">
-        <v>7.321657161144689</v>
+        <v>19.19936525831537</v>
       </c>
       <c r="M44" t="n">
-        <v>7.347783202065457</v>
+        <v>35.51168738522482</v>
       </c>
       <c r="N44" t="n">
-        <v>14.12202674368531</v>
+        <v>50.18030379588811</v>
       </c>
       <c r="O44" t="n">
-        <v>20.89627028530516</v>
+        <v>50.18030379588811</v>
       </c>
       <c r="P44" t="n">
-        <v>27.37068097624183</v>
+        <v>65.9083722299372</v>
       </c>
       <c r="Q44" t="n">
-        <v>20.45889285092824</v>
+        <v>65.9083722299372</v>
       </c>
       <c r="R44" t="n">
-        <v>13.54710472561464</v>
+        <v>65.9083722299372</v>
       </c>
       <c r="S44" t="n">
-        <v>13.54710472561464</v>
+        <v>65.9083722299372</v>
       </c>
       <c r="T44" t="n">
-        <v>13.54710472561464</v>
+        <v>65.9083722299372</v>
       </c>
       <c r="U44" t="n">
-        <v>13.54710472561464</v>
+        <v>51.24875246727844</v>
       </c>
       <c r="V44" t="n">
-        <v>6.635316600301049</v>
+        <v>51.24875246727844</v>
       </c>
       <c r="W44" t="n">
-        <v>6.635316600301049</v>
+        <v>51.24875246727844</v>
       </c>
       <c r="X44" t="n">
-        <v>6.635316600301049</v>
+        <v>51.24875246727844</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.635316600301049</v>
+        <v>51.24875246727844</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.5474136195248366</v>
+        <v>65.9083722299372</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5474136195248366</v>
+        <v>65.9083722299372</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5474136195248366</v>
+        <v>65.9083722299372</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5474136195248366</v>
+        <v>51.24875246727844</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5474136195248366</v>
+        <v>51.24875246727844</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5474136195248366</v>
+        <v>34.60522412638521</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5474136195248366</v>
+        <v>17.96169578549198</v>
       </c>
       <c r="I45" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="J45" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="K45" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="L45" t="n">
-        <v>7.04795035138227</v>
+        <v>16.97140584920884</v>
       </c>
       <c r="M45" t="n">
-        <v>13.82219389300212</v>
+        <v>33.28372797611829</v>
       </c>
       <c r="N45" t="n">
-        <v>20.59643743462198</v>
+        <v>49.59605010302775</v>
       </c>
       <c r="O45" t="n">
-        <v>27.37068097624183</v>
+        <v>65.9083722299372</v>
       </c>
       <c r="P45" t="n">
-        <v>27.37068097624183</v>
+        <v>65.9083722299372</v>
       </c>
       <c r="Q45" t="n">
-        <v>21.28277799546562</v>
+        <v>65.9083722299372</v>
       </c>
       <c r="R45" t="n">
-        <v>21.28277799546562</v>
+        <v>65.9083722299372</v>
       </c>
       <c r="S45" t="n">
-        <v>21.28277799546562</v>
+        <v>65.9083722299372</v>
       </c>
       <c r="T45" t="n">
-        <v>14.37098987015202</v>
+        <v>65.9083722299372</v>
       </c>
       <c r="U45" t="n">
-        <v>7.45920174483843</v>
+        <v>65.9083722299372</v>
       </c>
       <c r="V45" t="n">
-        <v>0.5474136195248366</v>
+        <v>65.9083722299372</v>
       </c>
       <c r="W45" t="n">
-        <v>0.5474136195248366</v>
+        <v>65.9083722299372</v>
       </c>
       <c r="X45" t="n">
-        <v>0.5474136195248366</v>
+        <v>65.9083722299372</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.5474136195248366</v>
+        <v>65.9083722299372</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="I46" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="J46" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="K46" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="L46" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="M46" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="N46" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="O46" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="P46" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="R46" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="S46" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="T46" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="U46" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="V46" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="W46" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="X46" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.5474136195248366</v>
+        <v>1.318167444598744</v>
       </c>
     </row>
   </sheetData>
@@ -8224,10 +8224,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>89.35872216232906</v>
+        <v>90.24443850190531</v>
       </c>
       <c r="N5" t="n">
-        <v>83.98878642167111</v>
+        <v>84.88883457760963</v>
       </c>
       <c r="O5" t="n">
         <v>99.00804712831379</v>
@@ -8300,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>38.87181201565983</v>
+        <v>39.45781263504657</v>
       </c>
       <c r="M6" t="n">
-        <v>16.76619772104772</v>
+        <v>17.45003280400846</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>29.09636626239171</v>
+        <v>29.73849888737652</v>
       </c>
       <c r="P6" t="n">
-        <v>51.91261060228356</v>
+        <v>52.42797864524607</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -9640,22 +9640,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>82.693084352536</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L23" t="n">
-        <v>48.07411698098349</v>
+        <v>64.55121003846779</v>
       </c>
       <c r="M23" t="n">
-        <v>6.707321807773383</v>
+        <v>23.18441486525768</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>14.81678425319523</v>
       </c>
       <c r="O23" t="n">
         <v>19.69981775191468</v>
       </c>
       <c r="P23" t="n">
-        <v>67.78072631241469</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>55.20189757157522</v>
@@ -9880,19 +9880,19 @@
         <v>82.693084352536</v>
       </c>
       <c r="L26" t="n">
-        <v>48.07411698098349</v>
+        <v>64.55121003846779</v>
       </c>
       <c r="M26" t="n">
-        <v>6.707321807773383</v>
+        <v>23.18441486525768</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>16.40150716916207</v>
       </c>
       <c r="O26" t="n">
         <v>19.69981775191468</v>
       </c>
       <c r="P26" t="n">
-        <v>67.78072631241469</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>55.20189757157522</v>
@@ -10117,19 +10117,19 @@
         <v>82.693084352536</v>
       </c>
       <c r="L29" t="n">
-        <v>48.07411698098349</v>
+        <v>64.55121003846779</v>
       </c>
       <c r="M29" t="n">
-        <v>6.707321807773383</v>
+        <v>23.10882897693545</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="O29" t="n">
         <v>19.69981775191468</v>
       </c>
       <c r="P29" t="n">
-        <v>67.78072631241469</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>55.20189757157522</v>
@@ -10354,19 +10354,19 @@
         <v>82.693084352536</v>
       </c>
       <c r="L32" t="n">
-        <v>48.07411698098349</v>
+        <v>64.47562415014556</v>
       </c>
       <c r="M32" t="n">
-        <v>6.707321807773383</v>
+        <v>23.18441486525768</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="O32" t="n">
         <v>19.69981775191468</v>
       </c>
       <c r="P32" t="n">
-        <v>67.78072631241469</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>55.20189757157522</v>
@@ -10588,19 +10588,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>82.693084352536</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L35" t="n">
-        <v>48.07411698098349</v>
+        <v>62.30074598886523</v>
       </c>
       <c r="M35" t="n">
-        <v>6.707321807773383</v>
+        <v>23.18441486525768</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="O35" t="n">
-        <v>19.69981775191468</v>
+        <v>36.17691080939898</v>
       </c>
       <c r="P35" t="n">
         <v>67.78072631241469</v>
@@ -10831,16 +10831,16 @@
         <v>48.07411698098349</v>
       </c>
       <c r="M38" t="n">
-        <v>6.707321807773383</v>
+        <v>23.10882897693545</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="O38" t="n">
-        <v>19.69981775191468</v>
+        <v>36.17691080939898</v>
       </c>
       <c r="P38" t="n">
-        <v>67.78072631241469</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -11062,22 +11062,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>82.693084352536</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L41" t="n">
         <v>48.07411698098349</v>
       </c>
       <c r="M41" t="n">
-        <v>6.707321807773383</v>
+        <v>21.52410606096862</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="O41" t="n">
-        <v>19.69981775191468</v>
+        <v>36.17691080939898</v>
       </c>
       <c r="P41" t="n">
-        <v>67.78072631241469</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>55.20189757157522</v>
@@ -11299,22 +11299,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>77.8149746188389</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>48.8650607484235</v>
+        <v>64.55121003846779</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>23.18441486525768</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>14.81678425319524</v>
       </c>
       <c r="O44" t="n">
-        <v>20.08114851979258</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P44" t="n">
-        <v>68.8059313365888</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -11378,7 +11378,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>35.82011851855916</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -22798,22 +22798,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>422.180569077725</v>
+        <v>422.1856132717813</v>
       </c>
       <c r="H5" t="n">
-        <v>349.6598249464623</v>
+        <v>349.7114837988406</v>
       </c>
       <c r="I5" t="n">
-        <v>253.2845231898766</v>
+        <v>253.4789894812294</v>
       </c>
       <c r="J5" t="n">
-        <v>101.17202184758</v>
+        <v>101.6001415128601</v>
       </c>
       <c r="K5" t="n">
-        <v>58.29051612840931</v>
+        <v>58.93215652808968</v>
       </c>
       <c r="L5" t="n">
-        <v>13.7627297632223</v>
+        <v>14.55874141675105</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22822,25 +22822,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.8498899512919138</v>
       </c>
       <c r="P5" t="n">
-        <v>51.80080109985101</v>
+        <v>52.52616251037966</v>
       </c>
       <c r="Q5" t="n">
-        <v>117.6935628343943</v>
+        <v>118.2382790452841</v>
       </c>
       <c r="R5" t="n">
-        <v>209.6584962505987</v>
+        <v>209.9753536054835</v>
       </c>
       <c r="S5" t="n">
-        <v>235.2672937814706</v>
+        <v>235.382238353527</v>
       </c>
       <c r="T5" t="n">
-        <v>219.3436445631938</v>
+        <v>219.365725522675</v>
       </c>
       <c r="U5" t="n">
-        <v>248.788833337017</v>
+        <v>248.7892368725415</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -22877,19 +22877,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.0149653106349</v>
+        <v>161.0176641923887</v>
       </c>
       <c r="H6" t="n">
-        <v>137.7503459159327</v>
+        <v>137.7764114318178</v>
       </c>
       <c r="I6" t="n">
-        <v>116.9507599882392</v>
+        <v>117.0436820135333</v>
       </c>
       <c r="J6" t="n">
-        <v>81.45811026959613</v>
+        <v>81.71309540932363</v>
       </c>
       <c r="K6" t="n">
-        <v>11.04044456262881</v>
+        <v>11.47625477985861</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22907,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>53.82637802552915</v>
+        <v>54.17088791395723</v>
       </c>
       <c r="R6" t="n">
-        <v>154.3921839405207</v>
+        <v>154.5597513532677</v>
       </c>
       <c r="S6" t="n">
-        <v>208.0224770741423</v>
+        <v>208.0726076189985</v>
       </c>
       <c r="T6" t="n">
-        <v>230.0952907293151</v>
+        <v>230.1061691167349</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6495544029776</v>
+        <v>249.6497319609877</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -22956,49 +22956,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.2343807020206</v>
+        <v>169.2366433538217</v>
       </c>
       <c r="H7" t="n">
-        <v>167.5776180378764</v>
+        <v>167.5977350693439</v>
       </c>
       <c r="I7" t="n">
-        <v>167.7355108777182</v>
+        <v>167.8035549882442</v>
       </c>
       <c r="J7" t="n">
-        <v>132.2802453397308</v>
+        <v>132.4402148220646</v>
       </c>
       <c r="K7" t="n">
-        <v>87.46423987719798</v>
+        <v>87.72711887735554</v>
       </c>
       <c r="L7" t="n">
-        <v>61.01644271081538</v>
+        <v>61.35283732494503</v>
       </c>
       <c r="M7" t="n">
-        <v>57.64716518774021</v>
+        <v>58.00184614233464</v>
       </c>
       <c r="N7" t="n">
-        <v>45.30505538511906</v>
+        <v>45.65130281936415</v>
       </c>
       <c r="O7" t="n">
-        <v>70.7260729557852</v>
+        <v>71.04588850308174</v>
       </c>
       <c r="P7" t="n">
-        <v>89.84907843621556</v>
+        <v>90.12273588677083</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.6385858692978</v>
+        <v>151.8280521032924</v>
       </c>
       <c r="R7" t="n">
-        <v>221.05342233419</v>
+        <v>221.1551593869897</v>
       </c>
       <c r="S7" t="n">
-        <v>243.6919922925021</v>
+        <v>243.7314241425257</v>
       </c>
       <c r="T7" t="n">
-        <v>218.0866353446397</v>
+        <v>218.0963030386987</v>
       </c>
       <c r="U7" t="n">
-        <v>291.219579948833</v>
+        <v>291.219703366204</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -24217,10 +24217,10 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F23" t="n">
-        <v>399.146417573369</v>
+        <v>382.6693245158847</v>
       </c>
       <c r="G23" t="n">
-        <v>421.7098656665098</v>
+        <v>405.2327726090255</v>
       </c>
       <c r="H23" t="n">
         <v>344.8392336363538</v>
@@ -24265,7 +24265,7 @@
         <v>248.7511770641198</v>
       </c>
       <c r="V23" t="n">
-        <v>313.3044420010231</v>
+        <v>298.791418435991</v>
       </c>
       <c r="W23" t="n">
         <v>325.3917254792934</v>
@@ -24274,7 +24274,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y23" t="n">
-        <v>377.9289763951821</v>
+        <v>361.4518833376978</v>
       </c>
     </row>
     <row r="24">
@@ -24338,16 +24338,16 @@
         <v>203.3445011265852</v>
       </c>
       <c r="T24" t="n">
-        <v>229.0801644257012</v>
+        <v>212.6030713682169</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6329854208729</v>
+        <v>233.1558923633886</v>
       </c>
       <c r="V24" t="n">
-        <v>249.2999251801724</v>
+        <v>232.8228321226881</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2492567629311</v>
+        <v>268.736233197899</v>
       </c>
       <c r="X24" t="n">
         <v>230.033063710963</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>364.5563275970632</v>
+        <v>348.0792345395789</v>
       </c>
       <c r="C26" t="n">
         <v>333.5971194742085</v>
       </c>
       <c r="D26" t="n">
-        <v>319.1317556432476</v>
+        <v>302.6546625857633</v>
       </c>
       <c r="E26" t="n">
-        <v>359.9585549362873</v>
+        <v>343.481461878803</v>
       </c>
       <c r="F26" t="n">
         <v>399.146417573369</v>
@@ -24511,7 +24511,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y26" t="n">
-        <v>377.9289763951821</v>
+        <v>363.41595283015</v>
       </c>
     </row>
     <row r="27">
@@ -24578,16 +24578,16 @@
         <v>229.0801644257012</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6329854208729</v>
+        <v>233.1558923633886</v>
       </c>
       <c r="V27" t="n">
-        <v>249.2999251801724</v>
+        <v>232.8228321226881</v>
       </c>
       <c r="W27" t="n">
-        <v>283.2492567629311</v>
+        <v>266.7721637054468</v>
       </c>
       <c r="X27" t="n">
-        <v>230.033063710963</v>
+        <v>215.5200401459308</v>
       </c>
       <c r="Y27" t="n">
         <v>242.8962664135933</v>
@@ -24685,7 +24685,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D29" t="n">
-        <v>319.1317556432476</v>
+        <v>302.6546625857633</v>
       </c>
       <c r="E29" t="n">
         <v>359.9585549362873</v>
@@ -24703,7 +24703,7 @@
         <v>235.1377299289993</v>
       </c>
       <c r="J29" t="n">
-        <v>61.2216581999468</v>
+        <v>44.74456514246251</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24739,10 +24739,10 @@
         <v>248.7511770641198</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3044420010231</v>
+        <v>296.8273489435388</v>
       </c>
       <c r="W29" t="n">
-        <v>325.3917254792934</v>
+        <v>310.8787019142612</v>
       </c>
       <c r="X29" t="n">
         <v>348.8168793035129</v>
@@ -24782,7 +24782,7 @@
         <v>108.279659353452</v>
       </c>
       <c r="J30" t="n">
-        <v>57.66394736845585</v>
+        <v>43.15092380342368</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,7 +24803,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>21.67813434720469</v>
+        <v>5.201041289720393</v>
       </c>
       <c r="R30" t="n">
         <v>138.7554832289223</v>
@@ -24821,10 +24821,10 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W30" t="n">
-        <v>283.2492567629311</v>
+        <v>266.7721637054468</v>
       </c>
       <c r="X30" t="n">
-        <v>230.033063710963</v>
+        <v>213.5559706534787</v>
       </c>
       <c r="Y30" t="n">
         <v>242.8962664135933</v>
@@ -24928,7 +24928,7 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F32" t="n">
-        <v>399.146417573369</v>
+        <v>382.6693245158847</v>
       </c>
       <c r="G32" t="n">
         <v>421.7098656665098</v>
@@ -24940,7 +24940,7 @@
         <v>235.1377299289993</v>
       </c>
       <c r="J32" t="n">
-        <v>61.2216581999468</v>
+        <v>46.70863463491463</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>66.8628898365198</v>
+        <v>50.3857967790355</v>
       </c>
       <c r="R32" t="n">
         <v>180.0906730958467</v>
@@ -24985,7 +24985,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y32" t="n">
-        <v>377.9289763951821</v>
+        <v>361.4518833376978</v>
       </c>
     </row>
     <row r="33">
@@ -25040,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>21.67813434720469</v>
+        <v>5.201041289720393</v>
       </c>
       <c r="R33" t="n">
-        <v>138.7554832289223</v>
+        <v>122.278390171438</v>
       </c>
       <c r="S33" t="n">
-        <v>203.3445011265852</v>
+        <v>186.8674080691009</v>
       </c>
       <c r="T33" t="n">
         <v>229.0801644257012</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6329854208729</v>
+        <v>235.1199618558408</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25156,22 +25156,22 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C35" t="n">
-        <v>333.5971194742085</v>
+        <v>319.0840959091763</v>
       </c>
       <c r="D35" t="n">
-        <v>319.1317556432476</v>
+        <v>302.6546625857633</v>
       </c>
       <c r="E35" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F35" t="n">
-        <v>399.146417573369</v>
+        <v>382.6693245158847</v>
       </c>
       <c r="G35" t="n">
         <v>421.7098656665098</v>
       </c>
       <c r="H35" t="n">
-        <v>344.8392336363538</v>
+        <v>328.3621405788695</v>
       </c>
       <c r="I35" t="n">
         <v>235.1377299289993</v>
@@ -25277,7 +25277,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>21.67813434720469</v>
+        <v>5.201041289720393</v>
       </c>
       <c r="R36" t="n">
         <v>138.7554832289223</v>
@@ -25289,13 +25289,13 @@
         <v>229.0801644257012</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6329854208729</v>
+        <v>233.1558923633886</v>
       </c>
       <c r="V36" t="n">
-        <v>249.2999251801724</v>
+        <v>234.7869016151402</v>
       </c>
       <c r="W36" t="n">
-        <v>283.2492567629311</v>
+        <v>266.7721637054468</v>
       </c>
       <c r="X36" t="n">
         <v>230.033063710963</v>
@@ -25447,16 +25447,16 @@
         <v>217.2831403805989</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7511770641198</v>
+        <v>232.2740840066355</v>
       </c>
       <c r="V38" t="n">
-        <v>313.3044420010231</v>
+        <v>296.8273489435388</v>
       </c>
       <c r="W38" t="n">
-        <v>325.3917254792934</v>
+        <v>308.9146324218091</v>
       </c>
       <c r="X38" t="n">
-        <v>348.8168793035129</v>
+        <v>334.3038557384807</v>
       </c>
       <c r="Y38" t="n">
         <v>377.9289763951821</v>
@@ -25517,13 +25517,13 @@
         <v>21.67813434720469</v>
       </c>
       <c r="R39" t="n">
-        <v>138.7554832289223</v>
+        <v>124.2424596638901</v>
       </c>
       <c r="S39" t="n">
         <v>203.3445011265852</v>
       </c>
       <c r="T39" t="n">
-        <v>229.0801644257012</v>
+        <v>212.6030713682169</v>
       </c>
       <c r="U39" t="n">
         <v>249.6329854208729</v>
@@ -25532,13 +25532,13 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W39" t="n">
-        <v>283.2492567629311</v>
+        <v>266.7721637054468</v>
       </c>
       <c r="X39" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y39" t="n">
-        <v>242.8962664135933</v>
+        <v>226.419173356109</v>
       </c>
     </row>
     <row r="40">
@@ -25639,7 +25639,7 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F41" t="n">
-        <v>399.146417573369</v>
+        <v>384.6333940083369</v>
       </c>
       <c r="G41" t="n">
         <v>421.7098656665098</v>
@@ -25651,7 +25651,7 @@
         <v>235.1377299289993</v>
       </c>
       <c r="J41" t="n">
-        <v>61.2216581999468</v>
+        <v>44.74456514246251</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25687,10 +25687,10 @@
         <v>248.7511770641198</v>
       </c>
       <c r="V41" t="n">
-        <v>313.3044420010231</v>
+        <v>296.8273489435388</v>
       </c>
       <c r="W41" t="n">
-        <v>325.3917254792934</v>
+        <v>308.9146324218091</v>
       </c>
       <c r="X41" t="n">
         <v>348.8168793035129</v>
@@ -25754,10 +25754,10 @@
         <v>21.67813434720469</v>
       </c>
       <c r="R42" t="n">
-        <v>138.7554832289223</v>
+        <v>124.2424596638901</v>
       </c>
       <c r="S42" t="n">
-        <v>203.3445011265852</v>
+        <v>186.8674080691009</v>
       </c>
       <c r="T42" t="n">
         <v>229.0801644257012</v>
@@ -25766,10 +25766,10 @@
         <v>249.6329854208729</v>
       </c>
       <c r="V42" t="n">
-        <v>249.2999251801724</v>
+        <v>232.8228321226881</v>
       </c>
       <c r="W42" t="n">
-        <v>283.2492567629311</v>
+        <v>266.7721637054468</v>
       </c>
       <c r="X42" t="n">
         <v>230.033063710963</v>
@@ -25870,25 +25870,25 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D44" t="n">
-        <v>313.1047316922792</v>
+        <v>302.6546625857633</v>
       </c>
       <c r="E44" t="n">
-        <v>359.9585549362873</v>
+        <v>343.481461878803</v>
       </c>
       <c r="F44" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>421.6715168777854</v>
+        <v>405.2327726090255</v>
       </c>
       <c r="H44" t="n">
-        <v>344.4464941038303</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I44" t="n">
-        <v>233.6592882517032</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J44" t="n">
-        <v>57.96685269295213</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,22 +25909,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>55.87898183410095</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8390757520792</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S44" t="n">
-        <v>223.6672667753459</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T44" t="n">
-        <v>217.115268557958</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7481091610218</v>
+        <v>234.2381534990876</v>
       </c>
       <c r="V44" t="n">
-        <v>306.4617717569627</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W44" t="n">
         <v>325.3917254792934</v>
@@ -25952,22 +25952,22 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E45" t="n">
-        <v>187.4605452976028</v>
+        <v>172.9475217325707</v>
       </c>
       <c r="F45" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.742598371771</v>
+        <v>144.2860237251594</v>
       </c>
       <c r="H45" t="n">
-        <v>135.1198546905889</v>
+        <v>118.8409262854801</v>
       </c>
       <c r="I45" t="n">
-        <v>107.5732140668273</v>
+        <v>91.80256629596767</v>
       </c>
       <c r="J45" t="n">
-        <v>55.72540750613977</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,22 +25988,22 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>13.03195324694666</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R45" t="n">
-        <v>137.4815418942142</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S45" t="n">
-        <v>202.9633806439284</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T45" t="n">
-        <v>222.1547905869391</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U45" t="n">
-        <v>242.7889652813603</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V45" t="n">
-        <v>242.4572549361119</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W45" t="n">
         <v>283.2492567629311</v>
@@ -26037,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.0060374098756</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H46" t="n">
-        <v>165.5474385858958</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I46" t="n">
-        <v>160.8686053284832</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J46" t="n">
-        <v>116.1363745850751</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K46" t="n">
-        <v>60.93490102616282</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L46" t="n">
-        <v>27.06802271317616</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M46" t="n">
-        <v>21.85331621994683</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N46" t="n">
-        <v>10.36230414259362</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O46" t="n">
-        <v>38.45078653513615</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P46" t="n">
-        <v>62.23199517532575</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q46" t="n">
-        <v>132.5179489243146</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R46" t="n">
-        <v>210.786277580104</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S46" t="n">
-        <v>239.7125914648468</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T46" t="n">
-        <v>217.1109867327472</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U46" t="n">
-        <v>291.2071248601706</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>420758.2231567516</v>
+        <v>420100.290977226</v>
       </c>
     </row>
     <row r="4">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>460805.5011315729</v>
+        <v>472831.0480136562</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>460805.5011315729</v>
+        <v>472831.0480136562</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>460805.5011315729</v>
+        <v>472831.0480136561</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>460805.5011315729</v>
+        <v>472831.0480136561</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>460805.5011315729</v>
+        <v>472831.0480136562</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>460805.5011315729</v>
+        <v>472831.0480136561</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>460805.5011315729</v>
+        <v>472831.0480136561</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>467768.0123843704</v>
+        <v>472831.0480136561</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>92148.00209696719</v>
       </c>
       <c r="C2" t="n">
-        <v>93076.03619987474</v>
+        <v>92916.20035263608</v>
       </c>
       <c r="D2" t="n">
         <v>93076.03619987474</v>
@@ -26334,28 +26334,28 @@
         <v>103513.6999435323</v>
       </c>
       <c r="I2" t="n">
-        <v>103513.6999435323</v>
+        <v>106049.0915470736</v>
       </c>
       <c r="J2" t="n">
-        <v>103513.6999435323</v>
+        <v>106049.0915470736</v>
       </c>
       <c r="K2" t="n">
-        <v>103513.6999435323</v>
+        <v>106049.0915470736</v>
       </c>
       <c r="L2" t="n">
-        <v>103513.6999435323</v>
+        <v>106049.0915470736</v>
       </c>
       <c r="M2" t="n">
-        <v>103513.6999435323</v>
+        <v>106049.0915470736</v>
       </c>
       <c r="N2" t="n">
-        <v>103513.6999435323</v>
+        <v>106049.0915470736</v>
       </c>
       <c r="O2" t="n">
-        <v>103513.6999435323</v>
+        <v>106049.0915470736</v>
       </c>
       <c r="P2" t="n">
-        <v>105143.5392901261</v>
+        <v>106049.0915470736</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>330871.7541851042</v>
       </c>
       <c r="C3" t="n">
-        <v>6633.965728588497</v>
+        <v>5491.393996085222</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1074.579704107896</v>
       </c>
       <c r="E3" t="n">
         <v>94068.42750429735</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4381.605062939281</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>7966.532645516751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,7 +26420,7 @@
         <v>12904.60941083623</v>
       </c>
       <c r="C4" t="n">
-        <v>12655.6028957624</v>
+        <v>12698.48943105251</v>
       </c>
       <c r="D4" t="n">
         <v>12655.6028957624</v>
@@ -26438,28 +26438,28 @@
         <v>6937.739840700675</v>
       </c>
       <c r="I4" t="n">
-        <v>6937.739840700675</v>
+        <v>7858.509093362777</v>
       </c>
       <c r="J4" t="n">
-        <v>6937.739840700675</v>
+        <v>7858.509093362777</v>
       </c>
       <c r="K4" t="n">
-        <v>6937.739840700675</v>
+        <v>7858.509093362778</v>
       </c>
       <c r="L4" t="n">
-        <v>6937.739840700675</v>
+        <v>7858.509093362777</v>
       </c>
       <c r="M4" t="n">
-        <v>6937.739840700675</v>
+        <v>7858.509093362778</v>
       </c>
       <c r="N4" t="n">
-        <v>6937.739840700675</v>
+        <v>7858.509093362778</v>
       </c>
       <c r="O4" t="n">
-        <v>6937.739840700675</v>
+        <v>7858.509093362778</v>
       </c>
       <c r="P4" t="n">
-        <v>6758.990660301038</v>
+        <v>7858.509093362778</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>41112.97456555201</v>
       </c>
       <c r="C5" t="n">
-        <v>41271.79307559616</v>
+        <v>41244.43967227773</v>
       </c>
       <c r="D5" t="n">
         <v>41271.79307559616</v>
@@ -26490,28 +26490,28 @@
         <v>10196.69999876384</v>
       </c>
       <c r="I5" t="n">
-        <v>10196.69999876384</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="J5" t="n">
-        <v>10196.69999876384</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="K5" t="n">
-        <v>10196.69999876384</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="L5" t="n">
-        <v>10196.69999876384</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="M5" t="n">
-        <v>10196.69999876384</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="N5" t="n">
-        <v>10196.69999876384</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="O5" t="n">
-        <v>10196.69999876384</v>
+        <v>11198.50725665889</v>
       </c>
       <c r="P5" t="n">
-        <v>10820.69024365778</v>
+        <v>11198.50725665889</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-292741.3360645252</v>
+        <v>-309473.1645353423</v>
       </c>
       <c r="C6" t="n">
-        <v>32514.67449992769</v>
+        <v>16809.14095591646</v>
       </c>
       <c r="D6" t="n">
-        <v>39148.64022851618</v>
+        <v>21413.61929227633</v>
       </c>
       <c r="E6" t="n">
-        <v>-7689.167400229571</v>
+        <v>-23546.71142131095</v>
       </c>
       <c r="F6" t="n">
-        <v>86379.26010406778</v>
+        <v>70521.71608298642</v>
       </c>
       <c r="G6" t="n">
-        <v>86379.26010406778</v>
+        <v>70521.71608298642</v>
       </c>
       <c r="H6" t="n">
-        <v>86379.26010406778</v>
+        <v>70521.71608298644</v>
       </c>
       <c r="I6" t="n">
-        <v>86379.26010406778</v>
+        <v>66947.9562363806</v>
       </c>
       <c r="J6" t="n">
-        <v>86379.26010406778</v>
+        <v>71329.56129931987</v>
       </c>
       <c r="K6" t="n">
-        <v>86379.26010406781</v>
+        <v>71329.56129931987</v>
       </c>
       <c r="L6" t="n">
-        <v>86379.26010406778</v>
+        <v>71329.56129931989</v>
       </c>
       <c r="M6" t="n">
-        <v>86379.26010406778</v>
+        <v>71329.56129931989</v>
       </c>
       <c r="N6" t="n">
-        <v>86379.26010406781</v>
+        <v>71329.56129931987</v>
       </c>
       <c r="O6" t="n">
-        <v>86379.26010406778</v>
+        <v>71329.56129931989</v>
       </c>
       <c r="P6" t="n">
-        <v>79597.32574065054</v>
+        <v>71329.56129931989</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
-        <v>350.6510585135856</v>
+        <v>349.396315242098</v>
       </c>
       <c r="D3" t="n">
         <v>350.6510585135856</v>
@@ -26779,7 +26779,7 @@
         <v>467.7385320533874</v>
       </c>
       <c r="P3" t="n">
-        <v>477.2777932485735</v>
+        <v>467.7385320533874</v>
       </c>
     </row>
     <row r="4">
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="P4" t="n">
-        <v>6.842670244060457</v>
+        <v>16.4770930574843</v>
       </c>
     </row>
   </sheetData>
@@ -26962,10 +26962,10 @@
         <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
-        <v>7.285252754319117</v>
+        <v>6.030509482831382</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.254743271487734</v>
       </c>
       <c r="E3" t="n">
         <v>117.0874735398017</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.539261195186119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.842670244060491</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.409652496537026</v>
+        <v>1.404608302480795</v>
       </c>
       <c r="H5" t="n">
-        <v>14.43660363015982</v>
+        <v>14.38494477778144</v>
       </c>
       <c r="I5" t="n">
-        <v>54.34562787274375</v>
+        <v>54.15116158139089</v>
       </c>
       <c r="J5" t="n">
-        <v>119.6424935779595</v>
+        <v>119.2143739126795</v>
       </c>
       <c r="K5" t="n">
-        <v>179.3130837563719</v>
+        <v>178.6714433566915</v>
       </c>
       <c r="L5" t="n">
-        <v>222.453736347267</v>
+        <v>221.6577246937382</v>
       </c>
       <c r="M5" t="n">
-        <v>247.5226439325573</v>
+        <v>246.636927592981</v>
       </c>
       <c r="N5" t="n">
-        <v>251.5278190883431</v>
+        <v>250.6277709324046</v>
       </c>
       <c r="O5" t="n">
-        <v>237.5105870759031</v>
+        <v>236.6606971246112</v>
       </c>
       <c r="P5" t="n">
-        <v>202.7097910676452</v>
+        <v>201.9844296571166</v>
       </c>
       <c r="Q5" t="n">
-        <v>152.2266110354129</v>
+        <v>151.681894824523</v>
       </c>
       <c r="R5" t="n">
-        <v>88.54908363559406</v>
+        <v>88.2322262807093</v>
       </c>
       <c r="S5" t="n">
-        <v>32.12245626483752</v>
+        <v>32.00751169278114</v>
       </c>
       <c r="T5" t="n">
-        <v>6.170753803590836</v>
+        <v>6.148672844109682</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1127721997229621</v>
+        <v>0.1123686641984636</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7542305786895992</v>
+        <v>0.7515316969358333</v>
       </c>
       <c r="H6" t="n">
-        <v>7.284279536291656</v>
+        <v>7.258214020406602</v>
       </c>
       <c r="I6" t="n">
-        <v>25.96802650312874</v>
+        <v>25.87510447783462</v>
       </c>
       <c r="J6" t="n">
-        <v>71.25824954189763</v>
+        <v>71.00326440217013</v>
       </c>
       <c r="K6" t="n">
-        <v>121.7916983141008</v>
+        <v>121.355888096871</v>
       </c>
       <c r="L6" t="n">
-        <v>163.7639684124062</v>
+        <v>163.1779677930194</v>
       </c>
       <c r="M6" t="n">
-        <v>191.1048268899041</v>
+        <v>190.4209918069434</v>
       </c>
       <c r="N6" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O6" t="n">
-        <v>179.4506412376083</v>
+        <v>178.8085086126235</v>
       </c>
       <c r="P6" t="n">
-        <v>144.0249602411744</v>
+        <v>143.5095921982119</v>
       </c>
       <c r="Q6" t="n">
-        <v>96.27687176395656</v>
+        <v>95.93236187552849</v>
       </c>
       <c r="R6" t="n">
-        <v>46.8284564558332</v>
+        <v>46.66088904308624</v>
       </c>
       <c r="S6" t="n">
-        <v>14.00950219627391</v>
+        <v>13.95937165141777</v>
       </c>
       <c r="T6" t="n">
-        <v>3.040078516735708</v>
+        <v>3.029200129315924</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04962043280852628</v>
+        <v>0.04944287479841011</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6323215809261378</v>
+        <v>0.6300589291250946</v>
       </c>
       <c r="H7" t="n">
-        <v>5.621913692234211</v>
+        <v>5.601796660766754</v>
       </c>
       <c r="I7" t="n">
-        <v>19.0156344518515</v>
+        <v>18.94759034132558</v>
       </c>
       <c r="J7" t="n">
-        <v>44.70513577147794</v>
+        <v>44.54516628914418</v>
       </c>
       <c r="K7" t="n">
-        <v>73.46427094760035</v>
+        <v>73.2013919474428</v>
       </c>
       <c r="L7" t="n">
-        <v>94.00897394969145</v>
+        <v>93.67257933556181</v>
       </c>
       <c r="M7" t="n">
-        <v>99.11928199917629</v>
+        <v>98.76460104458187</v>
       </c>
       <c r="N7" t="n">
-        <v>96.7624470157244</v>
+        <v>96.41619958147932</v>
       </c>
       <c r="O7" t="n">
-        <v>89.37578127490541</v>
+        <v>89.05596572760886</v>
       </c>
       <c r="P7" t="n">
-        <v>76.47642102401213</v>
+        <v>76.20276357345686</v>
       </c>
       <c r="Q7" t="n">
-        <v>52.94830983555142</v>
+        <v>52.75884360155679</v>
       </c>
       <c r="R7" t="n">
-        <v>28.43147762964252</v>
+        <v>28.32974057684288</v>
       </c>
       <c r="S7" t="n">
-        <v>11.01964064214005</v>
+        <v>10.98020879211642</v>
       </c>
       <c r="T7" t="n">
-        <v>2.701737663957134</v>
+        <v>2.692069969898131</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03449026805051665</v>
+        <v>0.03436685067955066</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32794,16 +32794,16 @@
         <v>162.4597125906563</v>
       </c>
       <c r="L24" t="n">
-        <v>202.635780428066</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M24" t="n">
-        <v>207.8710246109518</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N24" t="n">
-        <v>192.087253921875</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O24" t="n">
-        <v>208.5470075</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P24" t="n">
         <v>192.1169830994376</v>
@@ -33031,16 +33031,16 @@
         <v>162.4597125906563</v>
       </c>
       <c r="L27" t="n">
-        <v>202.635780428066</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M27" t="n">
-        <v>207.8710246109518</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N27" t="n">
-        <v>192.087253921875</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O27" t="n">
-        <v>208.5470075</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P27" t="n">
         <v>192.1169830994376</v>
@@ -33268,16 +33268,16 @@
         <v>162.4597125906563</v>
       </c>
       <c r="L30" t="n">
-        <v>202.635780428066</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M30" t="n">
-        <v>207.8710246109518</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N30" t="n">
-        <v>192.087253921875</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O30" t="n">
-        <v>208.5470075</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P30" t="n">
         <v>192.1169830994376</v>
@@ -33505,16 +33505,16 @@
         <v>162.4597125906563</v>
       </c>
       <c r="L33" t="n">
-        <v>202.635780428066</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M33" t="n">
-        <v>207.8710246109518</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N33" t="n">
-        <v>192.087253921875</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O33" t="n">
-        <v>208.5470075</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P33" t="n">
         <v>192.1169830994376</v>
@@ -33742,16 +33742,16 @@
         <v>162.4597125906563</v>
       </c>
       <c r="L36" t="n">
-        <v>202.635780428066</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M36" t="n">
-        <v>207.8710246109518</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N36" t="n">
-        <v>192.087253921875</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O36" t="n">
-        <v>208.5470075</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P36" t="n">
         <v>192.1169830994376</v>
@@ -33979,16 +33979,16 @@
         <v>162.4597125906563</v>
       </c>
       <c r="L39" t="n">
-        <v>202.635780428066</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M39" t="n">
-        <v>207.8710246109518</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N39" t="n">
-        <v>192.087253921875</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O39" t="n">
-        <v>208.5470075</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P39" t="n">
         <v>192.1169830994376</v>
@@ -34216,16 +34216,16 @@
         <v>162.4597125906563</v>
       </c>
       <c r="L42" t="n">
-        <v>202.635780428066</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M42" t="n">
-        <v>207.8710246109518</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N42" t="n">
-        <v>192.087253921875</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O42" t="n">
-        <v>208.5470075</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P42" t="n">
         <v>192.1169830994376</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.918704696476676</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H44" t="n">
-        <v>19.64993447279176</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I44" t="n">
-        <v>73.97086281091711</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J44" t="n">
-        <v>162.8476627325874</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K44" t="n">
-        <v>244.0664325344451</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L44" t="n">
-        <v>302.7859913892433</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M44" t="n">
-        <v>336.9077560352104</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N44" t="n">
-        <v>342.3592757540747</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O44" t="n">
-        <v>323.2801559284848</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P44" t="n">
-        <v>275.9121337342168</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q44" t="n">
-        <v>207.1985217916458</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R44" t="n">
-        <v>120.5258338900531</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S44" t="n">
-        <v>43.72248327096229</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T44" t="n">
-        <v>8.399129808826652</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U44" t="n">
-        <v>0.153496375718134</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.026597517553535</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H45" t="n">
-        <v>9.914770761635461</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I45" t="n">
-        <v>35.34557242454058</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J45" t="n">
-        <v>96.99095230535399</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K45" t="n">
-        <v>165.7729859814409</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L45" t="n">
-        <v>209.2019791471139</v>
+        <v>218.4471323519146</v>
       </c>
       <c r="M45" t="n">
-        <v>214.7136948550123</v>
+        <v>224.3481176684361</v>
       </c>
       <c r="N45" t="n">
-        <v>198.9299241659354</v>
+        <v>208.5643469793593</v>
       </c>
       <c r="O45" t="n">
-        <v>215.3896777440604</v>
+        <v>225.0241005574843</v>
       </c>
       <c r="P45" t="n">
-        <v>195.937570843458</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q45" t="n">
-        <v>131.0442725915706</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R45" t="n">
-        <v>63.7390985021397</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S45" t="n">
-        <v>19.06859862648781</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T45" t="n">
-        <v>4.13790841505131</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0675393103653642</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.860664873071198</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H46" t="n">
-        <v>7.652093144214838</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I46" t="n">
-        <v>25.88254000108658</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J46" t="n">
-        <v>60.84900652613369</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K46" t="n">
-        <v>99.99360979863552</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L46" t="n">
-        <v>127.9573939473307</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M46" t="n">
-        <v>134.9131309669697</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N46" t="n">
-        <v>131.7051982582499</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O46" t="n">
-        <v>121.6510676955545</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P46" t="n">
-        <v>104.0935042849019</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.06894678053459</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R46" t="n">
-        <v>38.69862238372858</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S46" t="n">
-        <v>14.99904146979533</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T46" t="n">
-        <v>3.677386275849663</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04694535671297449</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1.584722915966836</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>14.81678425319523</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>15.8869378121708</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>15.81135192384858</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>16.47709305748429</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36600,19 +36600,19 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>16.40150716916207</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>15.8869378121708</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>15.81135192384858</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>16.47709305748429</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36837,19 +36837,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>16.40150716916207</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>15.8869378121708</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>15.81135192384858</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>16.47709305748429</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37074,19 +37074,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>16.40150716916207</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>15.8869378121708</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>15.81135192384858</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>16.47709305748429</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1.584722915966836</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>14.22662900788174</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>15.81135192384857</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37551,16 +37551,16 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>16.40150716916207</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>15.8869378121708</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>15.81135192384857</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1.584722915966836</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>14.81678425319523</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>15.8869378121708</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>15.81135192384858</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1.584722915966836</v>
       </c>
       <c r="L44" t="n">
-        <v>6.842670244060457</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="M44" t="n">
-        <v>0.02638994032400888</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="N44" t="n">
-        <v>6.842670244060457</v>
+        <v>14.81678425319524</v>
       </c>
       <c r="O44" t="n">
-        <v>6.842670244060457</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>6.539808778723904</v>
+        <v>15.8869378121708</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>6.566198719047913</v>
+        <v>15.81135192384858</v>
       </c>
       <c r="M45" t="n">
-        <v>6.842670244060457</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="N45" t="n">
-        <v>6.842670244060457</v>
+        <v>16.4770930574843</v>
       </c>
       <c r="O45" t="n">
-        <v>6.842670244060457</v>
+        <v>16.47709305748429</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
